--- a/input/23/googlesheet.xlsx
+++ b/input/23/googlesheet.xlsx
@@ -6,21 +6,21 @@
     <sheet state="visible" name="Marqueurs" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_249C34B5_056B_4993_B8DB_CEB1662529D1_.wvu.FilterData">Marqueurs!$A$1:$L$83</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6307935D_4530_4C72_BF3D_73DED354A67D_.wvu.FilterData">Marqueurs!$A$1:$L$83</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_79B589E8_FBA2_4EA7_9246_9A5241EA3073_.wvu.FilterData">Marqueurs!$A$1:$L$83</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0229628C_43D2_484F_9572_906B14DA04C5_.wvu.FilterData">Marqueurs!$A$1:$L$82</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9681BB68_BA09_4DE1_A914_65FB9A9BB0F2_.wvu.FilterData">Marqueurs!$A$1:$L$82</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DCE28386_E219_4037_B888_AD9076C74262_.wvu.FilterData">Marqueurs!$A$1:$L$82</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{79B589E8-FBA2-4EA7-9246-9A5241EA3073}" name="Assigned"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6307935D-4530-4C72-BF3D-73DED354A67D}" name="By date"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{249C34B5-056B-4993-B8DB-CEB1662529D1}" name="Unassigned"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9681BB68-BA09-4DE1-A914-65FB9A9BB0F2}" name="Assigned"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DCE28386-E219-4037-B888-AD9076C74262}" name="By date"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0229628C-43D2-484F-9572-906B14DA04C5}" name="Unassigned"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="178">
   <si>
     <t># Match</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Lausanne I F3</t>
   </si>
   <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Chouda</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -106,6 +112,12 @@
     <t>La Côte M19F</t>
   </si>
   <si>
+    <t>Delia Rein</t>
+  </si>
+  <si>
+    <t>0787796428</t>
+  </si>
+  <si>
     <t>Le Mont II M4</t>
   </si>
   <si>
@@ -169,6 +181,9 @@
     <t>La Côte II M2</t>
   </si>
   <si>
+    <t>0798929485</t>
+  </si>
+  <si>
     <t>M17</t>
   </si>
   <si>
@@ -190,217 +205,325 @@
     <t>La Tour I F4</t>
   </si>
   <si>
+    <t>Renaud Durussel</t>
+  </si>
+  <si>
+    <t>079 822 80 27</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>Yverdon I F3</t>
+  </si>
+  <si>
+    <t>Sibylle Baechtold</t>
+  </si>
+  <si>
+    <t>079 583 67 21</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>VBC Lausanne</t>
+  </si>
+  <si>
+    <t>VBC La Côte</t>
+  </si>
+  <si>
+    <t>Naya Cazeaux</t>
+  </si>
+  <si>
+    <t>Lutry-Lavaux II M2</t>
+  </si>
+  <si>
+    <t>Alyssa Pasini</t>
+  </si>
+  <si>
+    <t>078 926 11 70</t>
+  </si>
+  <si>
+    <t>Sainte-Croix M17M</t>
+  </si>
+  <si>
+    <t>pas nécessaire</t>
+  </si>
+  <si>
+    <t>VBC Cheseaux</t>
+  </si>
+  <si>
+    <t>Ecublens II M19F</t>
+  </si>
+  <si>
+    <t>Letizia Lilliu</t>
+  </si>
+  <si>
+    <t>0786606110</t>
+  </si>
+  <si>
+    <t>Chênois Genève Volleyball</t>
+  </si>
+  <si>
+    <t>Sarah Noel-Weil</t>
+  </si>
+  <si>
+    <t>0767946002</t>
+  </si>
+  <si>
+    <t>Cossonay II M19F</t>
+  </si>
+  <si>
+    <t>Epalinges M17M</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>Lausanne M18G</t>
+  </si>
+  <si>
+    <t>LUC M18G</t>
+  </si>
+  <si>
+    <t>Lutry-Lavaux M18G</t>
+  </si>
+  <si>
+    <t>Morgane Fouvy</t>
+  </si>
+  <si>
+    <t>079 455 78 98</t>
+  </si>
+  <si>
+    <t>Chiara Haldemann</t>
+  </si>
+  <si>
+    <t>41 79 274 09 04</t>
+  </si>
+  <si>
+    <t>Haute-Broye M18G</t>
+  </si>
+  <si>
+    <t>Daniel Kostro</t>
+  </si>
+  <si>
+    <t>076 822 03 61</t>
+  </si>
+  <si>
+    <t>Haute-Broye I F4</t>
+  </si>
+  <si>
+    <t>Driss Ben Mimoun</t>
+  </si>
+  <si>
+    <t>0788783625</t>
+  </si>
+  <si>
+    <t>Littoral M19F</t>
+  </si>
+  <si>
+    <t>VBC Porrentruy</t>
+  </si>
+  <si>
+    <t>Cheseaux II M23F</t>
+  </si>
+  <si>
+    <t>Bussigny I M17F</t>
+  </si>
+  <si>
+    <t>Aigle M23F</t>
+  </si>
+  <si>
+    <t>La Tour M4</t>
+  </si>
+  <si>
+    <t>Colombier Volley</t>
+  </si>
+  <si>
+    <t>Thierry Briquet</t>
+  </si>
+  <si>
+    <t>078 904 44 84</t>
+  </si>
+  <si>
+    <t>Cheseaux I M17F</t>
+  </si>
+  <si>
+    <t>LUC III M2</t>
+  </si>
+  <si>
+    <t>VBC Fully</t>
+  </si>
+  <si>
+    <t>dim.</t>
+  </si>
+  <si>
+    <t>VBC Delémont</t>
+  </si>
+  <si>
+    <t>La Côte IV M4</t>
+  </si>
+  <si>
+    <t>Emeric Gay-des-Combes</t>
+  </si>
+  <si>
+    <t>076 615 88 45</t>
+  </si>
+  <si>
+    <t>Ivan Jimenez</t>
+  </si>
+  <si>
+    <t>41 79 596 33 51</t>
+  </si>
+  <si>
+    <t>Aigle F4</t>
+  </si>
+  <si>
+    <t>Montreux II F3</t>
+  </si>
+  <si>
+    <t>766158845</t>
+  </si>
+  <si>
+    <t>Cossonay II F3</t>
+  </si>
+  <si>
+    <t>BOPP F3</t>
+  </si>
+  <si>
+    <t>Bussigny M2</t>
+  </si>
+  <si>
+    <t>Cheseaux IV F3</t>
+  </si>
+  <si>
+    <t>Orbe M2</t>
+  </si>
+  <si>
+    <t>Pailly M4</t>
+  </si>
+  <si>
+    <t>La Côte II F3</t>
+  </si>
+  <si>
+    <t>TV Murten Volleyball</t>
+  </si>
+  <si>
+    <t>Groupement Sportif du CERN</t>
+  </si>
+  <si>
+    <t>BOPP/Froidev II M23F</t>
+  </si>
+  <si>
+    <t>Les Cèdres M2</t>
+  </si>
+  <si>
+    <t>VBC Le Locle</t>
+  </si>
+  <si>
+    <t>Orbe I F3</t>
+  </si>
+  <si>
+    <t>Emmeline Guyaz</t>
+  </si>
+  <si>
+    <t>078 708 32 07</t>
+  </si>
+  <si>
+    <t>Littoral F4</t>
+  </si>
+  <si>
+    <t>Margaux Lari</t>
+  </si>
+  <si>
+    <t>079 749 38 22</t>
+  </si>
+  <si>
+    <t>Gaelle Sandoz</t>
+  </si>
+  <si>
+    <t>0792909858</t>
+  </si>
+  <si>
+    <t>Ecublens M4</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>0768187255</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
+    <t>0786536978</t>
+  </si>
+  <si>
+    <t>Lutry-Lavaux III M4</t>
+  </si>
+  <si>
+    <t>Annabelle</t>
+  </si>
+  <si>
+    <t>0799425960</t>
+  </si>
+  <si>
+    <t>Megane</t>
+  </si>
+  <si>
+    <t>0765028665</t>
+  </si>
+  <si>
+    <t>VBC Servette Star-Onex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lea </t>
+  </si>
+  <si>
+    <t>0797199694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeanne </t>
+  </si>
+  <si>
+    <t>0763162219</t>
+  </si>
+  <si>
+    <t>Sainte-Croix M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruslana </t>
+  </si>
+  <si>
+    <t>0789077010</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>0765120923</t>
+  </si>
+  <si>
+    <t>Sainte-Croix II F3</t>
+  </si>
+  <si>
+    <t>Littoral I M2</t>
+  </si>
+  <si>
+    <t>Le Mont II F4</t>
+  </si>
+  <si>
+    <t>La Côte III M4</t>
+  </si>
+  <si>
+    <t>Epalinges II F3</t>
+  </si>
+  <si>
+    <t>Yverdon M19F</t>
+  </si>
+  <si>
     <t>La Tour M23F</t>
-  </si>
-  <si>
-    <t>3L</t>
-  </si>
-  <si>
-    <t>Yverdon I F3</t>
-  </si>
-  <si>
-    <t>1L</t>
-  </si>
-  <si>
-    <t>VBC Lausanne</t>
-  </si>
-  <si>
-    <t>VBC La Côte</t>
-  </si>
-  <si>
-    <t>Lutry-Lavaux II M2</t>
-  </si>
-  <si>
-    <t>Alyssa Pasini</t>
-  </si>
-  <si>
-    <t>078 926 11 70</t>
-  </si>
-  <si>
-    <t>Sainte-Croix M17M</t>
-  </si>
-  <si>
-    <t>VBC Cheseaux</t>
-  </si>
-  <si>
-    <t>Ecublens II M19F</t>
-  </si>
-  <si>
-    <t>Chênois Genève Volleyball</t>
-  </si>
-  <si>
-    <t>Cossonay II M19F</t>
-  </si>
-  <si>
-    <t>Epalinges M17M</t>
-  </si>
-  <si>
-    <t>M18</t>
-  </si>
-  <si>
-    <t>Lausanne M18G</t>
-  </si>
-  <si>
-    <t>LUC M18G</t>
-  </si>
-  <si>
-    <t>Lutry-Lavaux M18G</t>
-  </si>
-  <si>
-    <t>Haute-Broye M18G</t>
-  </si>
-  <si>
-    <t>Daniel Kostro</t>
-  </si>
-  <si>
-    <t>076 822 03 61</t>
-  </si>
-  <si>
-    <t>Colombier Volley</t>
-  </si>
-  <si>
-    <t>Haute-Broye I F4</t>
-  </si>
-  <si>
-    <t>Littoral M19F</t>
-  </si>
-  <si>
-    <t>VBC Porrentruy</t>
-  </si>
-  <si>
-    <t>Cheseaux II M23F</t>
-  </si>
-  <si>
-    <t>Bussigny I M17F</t>
-  </si>
-  <si>
-    <t>Aigle M23F</t>
-  </si>
-  <si>
-    <t>La Tour M4</t>
-  </si>
-  <si>
-    <t>dim.</t>
-  </si>
-  <si>
-    <t>Cheseaux I M17F</t>
-  </si>
-  <si>
-    <t>LUC III M2</t>
-  </si>
-  <si>
-    <t>VBC Delémont</t>
-  </si>
-  <si>
-    <t>La Côte IV M4</t>
-  </si>
-  <si>
-    <t>Emeric Gay-des-Combes</t>
-  </si>
-  <si>
-    <t>076 615 88 45</t>
-  </si>
-  <si>
-    <t>Ivan Jimenez</t>
-  </si>
-  <si>
-    <t>41 79 596 33 51</t>
-  </si>
-  <si>
-    <t>Aigle F4</t>
-  </si>
-  <si>
-    <t>Montreux II F3</t>
-  </si>
-  <si>
-    <t>Cossonay II F3</t>
-  </si>
-  <si>
-    <t>BOPP F3</t>
-  </si>
-  <si>
-    <t>Bussigny M2</t>
-  </si>
-  <si>
-    <t>Cheseaux IV F3</t>
-  </si>
-  <si>
-    <t>Orbe M2</t>
-  </si>
-  <si>
-    <t>Pailly M4</t>
-  </si>
-  <si>
-    <t>La Côte II F3</t>
-  </si>
-  <si>
-    <t>TV Murten Volleyball</t>
-  </si>
-  <si>
-    <t>Groupement Sportif du CERN</t>
-  </si>
-  <si>
-    <t>BOPP/Froidev II M23F</t>
-  </si>
-  <si>
-    <t>Les Cèdres M2</t>
-  </si>
-  <si>
-    <t>VBC Le Locle</t>
-  </si>
-  <si>
-    <t>Orbe I F3</t>
-  </si>
-  <si>
-    <t>Emmeline Guyaz</t>
-  </si>
-  <si>
-    <t>078 708 32 07</t>
-  </si>
-  <si>
-    <t>Littoral F4</t>
-  </si>
-  <si>
-    <t>entrainement M23</t>
-  </si>
-  <si>
-    <t>Ecublens M4</t>
-  </si>
-  <si>
-    <t>Lutry-Lavaux III M4</t>
-  </si>
-  <si>
-    <t>VBC Servette Star-Onex</t>
-  </si>
-  <si>
-    <t>Margaux Lari</t>
-  </si>
-  <si>
-    <t>079 749 38 22</t>
-  </si>
-  <si>
-    <t>Sainte-Croix M2</t>
-  </si>
-  <si>
-    <t>Sainte-Croix II F3</t>
-  </si>
-  <si>
-    <t>Littoral I M2</t>
-  </si>
-  <si>
-    <t>Le Mont II F4</t>
-  </si>
-  <si>
-    <t>VBC Fully</t>
-  </si>
-  <si>
-    <t>La Côte III M4</t>
-  </si>
-  <si>
-    <t>Epalinges II F3</t>
-  </si>
-  <si>
-    <t>Yverdon M19F</t>
   </si>
   <si>
     <t>La Côte M18G</t>
@@ -440,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -448,14 +571,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,16 +606,39 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -540,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L83" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L82" displayName="Table_1" id="1">
   <tableColumns count="12">
     <tableColumn name="# Match" id="1"/>
     <tableColumn name="H/F" id="2"/>
@@ -765,13 +922,13 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.0"/>
     <col customWidth="1" min="2" max="2" width="4.14"/>
-    <col customWidth="1" min="3" max="3" width="5.57"/>
-    <col customWidth="1" min="4" max="4" width="5.86"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="16.29"/>
-    <col customWidth="1" min="7" max="7" width="19.43"/>
-    <col customWidth="1" min="8" max="8" width="15.14"/>
-    <col customWidth="1" min="9" max="9" width="18.14"/>
+    <col customWidth="1" min="3" max="3" width="9.57"/>
+    <col customWidth="1" min="4" max="4" width="12.14"/>
+    <col customWidth="1" min="5" max="5" width="23.0"/>
+    <col customWidth="1" min="6" max="6" width="33.86"/>
+    <col customWidth="1" min="7" max="7" width="34.0"/>
+    <col customWidth="1" min="8" max="8" width="24.86"/>
+    <col customWidth="1" min="9" max="9" width="30.29"/>
     <col customWidth="1" min="10" max="10" width="15.86"/>
     <col customWidth="1" min="11" max="11" width="16.86"/>
     <col customWidth="1" min="12" max="12" width="16.0"/>
@@ -806,15 +963,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -841,44 +999,50 @@
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>336277.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>45195.854166666664</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -888,65 +1052,71 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>45202.791666666664</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>336287.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>45209.854166666664</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -956,31 +1126,32 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>45211.854166666664</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -993,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
         <v>45233.80208332176</v>
@@ -1002,19 +1173,20 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -1024,65 +1196,71 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>45240.791666666664</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>336487.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>45267.854166666664</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -1092,35 +1270,36 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2">
         <v>45272.791666666664</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -1130,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -1139,18 +1318,19 @@
         <v>45346.375</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -1160,973 +1340,1043 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
         <v>45358.854166666664</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>336976.0</v>
+        <v>336725.0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45212.854166666664</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="2">
-        <v>45359.80208332176</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>336725.0</v>
+        <v>326422.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45226.854166666664</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2">
-        <v>45212.854166666664</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>326422.0</v>
+        <v>336471.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45233.875</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2">
-        <v>45226.854166666664</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>336471.0</v>
+        <v>337266.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2">
-        <v>45234.64583332176</v>
+        <v>45241.416666666664</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>337266.0</v>
+        <v>326439.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2">
-        <v>45241.416666666664</v>
+        <v>45248.666666666664</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>326439.0</v>
+        <v>337065.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2">
-        <v>45248.666666666664</v>
+        <v>45268.791666666664</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>337065.0</v>
+        <v>326470.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45303.86458332176</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2">
-        <v>45268.791666666664</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>326470.0</v>
+        <v>337081.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45310.791666666664</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="2">
-        <v>45303.86458332176</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>337081.0</v>
+        <v>337293.0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45325.416666666664</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="2">
-        <v>45310.791666666664</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>337293.0</v>
+        <v>337097.0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2">
-        <v>45325.416666666664</v>
+        <v>45345.791666666664</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>337097.0</v>
+        <v>337258.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45374.5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="2">
-        <v>45345.791666666664</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>337258.0</v>
+        <v>337260.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>45374.5</v>
+        <v>45374.58333332176</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>337260.0</v>
+        <v>337248.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>45374.58333332176</v>
+        <v>45192.416666666664</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>337248.0</v>
+        <v>337249.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="2">
-        <v>45192.416666666664</v>
+        <v>45192.45833332176</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>326401.0</v>
+        <v>336643.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45239.854166666664</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="2">
-        <v>45198.854166666664</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>336643.0</v>
+        <v>337058.0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2">
-        <v>45239.854166666664</v>
+        <v>45254.791666666664</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>337058.0</v>
+        <v>326458.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
-        <v>45254.791666666664</v>
+        <v>45269.75</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>326458.0</v>
+        <v>337069.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2">
-        <v>45269.75</v>
+        <v>45275.791666666664</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>337069.0</v>
+        <v>336953.0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2">
-        <v>45275.791666666664</v>
+        <v>45282.80208332176</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>336953.0</v>
+        <v>337288.0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
-        <v>45282.80208332176</v>
+        <v>45304.45833332176</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>337288.0</v>
+        <v>336965.0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2">
-        <v>45304.45833332176</v>
+        <v>45324.80208332176</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>336965.0</v>
+        <v>336347.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E34" s="2">
-        <v>45324.80208332176</v>
+        <v>45328.854166666664</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>336347.0</v>
+        <v>337255.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45328.854166666664</v>
+        <v>85</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45353.375</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>337255.0</v>
+        <v>337253.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45353.458333333336</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="2">
-        <v>45354.375</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>337253.0</v>
+        <v>326401.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2">
-        <v>45354.45833332176</v>
+        <v>45198.854166666664</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>337249.0</v>
+        <v>337235.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="2">
-        <v>45192.45833332176</v>
+        <v>45248.416666666664</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>337235.0</v>
+        <v>337273.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="2">
-        <v>45248.416666666664</v>
+        <v>45255.45833332176</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>337273.0</v>
+        <v>336503.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2">
-        <v>45255.45833332176</v>
+        <v>45309.854166666664</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>336503.0</v>
+        <v>326496.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="2">
-        <v>45309.854166666664</v>
+        <v>42</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45331.875</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>326501.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2">
         <v>45340.666666666664</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>336273.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E43" s="2">
         <v>45188.854166666664</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="1">
@@ -2136,35 +2386,36 @@
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2">
         <v>45190.854166666664</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="1">
@@ -2174,10 +2425,10 @@
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E45" s="2">
         <v>45197.854166666664</v>
@@ -2186,15 +2437,24 @@
         <v>17</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="1">
@@ -2204,27 +2464,28 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E46" s="2">
         <v>45258.791666666664</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="1">
@@ -2234,10 +2495,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2">
         <v>45330.854166666664</v>
@@ -2246,15 +2507,16 @@
         <v>17</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="1">
@@ -2264,10 +2526,10 @@
         <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E48" s="2">
         <v>45240.86458332176</v>
@@ -2276,15 +2538,16 @@
         <v>17</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="1">
@@ -2297,7 +2560,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2">
         <v>45253.80208332176</v>
@@ -2306,45 +2569,47 @@
         <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>336481.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E50" s="2">
         <v>45254.86458332176</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="1">
@@ -2354,10 +2619,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2">
         <v>45260.854166666664</v>
@@ -2366,75 +2631,78 @@
         <v>17</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="1">
         <v>336491.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E52" s="2">
         <v>45275.86458332176</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="1">
         <v>336327.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2">
         <v>45300.854166666664</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="1">
@@ -2444,10 +2712,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2">
         <v>45302.854166666664</v>
@@ -2456,25 +2724,26 @@
         <v>17</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="3"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="1">
         <v>326479.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -2483,48 +2752,50 @@
         <v>45311.666666666664</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>326483.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E56" s="2">
         <v>45317.854166666664</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="1">
@@ -2537,7 +2808,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E57" s="2">
         <v>45331.80208332176</v>
@@ -2546,55 +2817,57 @@
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="1">
         <v>336520.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E58" s="2">
         <v>45351.854166666664</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="3"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="1">
         <v>326513.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -2603,18 +2876,19 @@
         <v>45353.666666666664</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="1">
@@ -2624,7 +2898,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -2636,19 +2910,20 @@
         <v>17</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="1">
@@ -2658,153 +2933,192 @@
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E61" s="2">
         <v>45197.854166666664</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="1">
         <v>336297.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E62" s="2">
         <v>45237.854166666664</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="I62" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="1">
         <v>336309.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E63" s="2">
         <v>45258.854166666664</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="I63" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="1">
         <v>326454.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="2">
-        <v>45261.854166666664</v>
+        <v>42</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45261.875</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="I64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="1">
         <v>336495.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E65" s="2">
         <v>45282.875</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="I65" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="1">
@@ -2814,10 +3128,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E66" s="2">
         <v>45316.854166666664</v>
@@ -2826,45 +3140,47 @@
         <v>17</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="3"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="1">
         <v>336511.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E67" s="2">
         <v>45324.875</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="3"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="1">
@@ -2874,3283 +3190,5143 @@
         <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2">
         <v>45330.854166666664</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>326496.0</v>
+        <v>336358.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E69" s="2">
-        <v>45331.83333332176</v>
+        <v>45356.854166666664</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>21</v>
+        <v>164</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="3"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>336358.0</v>
+        <v>336796.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E70" s="2">
-        <v>45356.854166666664</v>
+        <v>45359.875</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>336796.0</v>
+        <v>337033.0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E71" s="2">
-        <v>45359.875</v>
+        <v>45198.78125</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>15</v>
+        <v>166</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="3"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>337033.0</v>
+        <v>336976.0</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E72" s="2">
-        <v>45198.78125</v>
+        <v>45359.80208332176</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>337222.0</v>
+        <v>336925.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E73" s="2">
-        <v>45200.416666666664</v>
+        <v>45205.80208332176</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>336925.0</v>
+        <v>337237.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2">
-        <v>45205.80208332176</v>
+        <v>45249.375</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="3"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>337237.0</v>
+        <v>337238.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45249.416666666664</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E75" s="2">
-        <v>45249.375</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>337238.0</v>
+        <v>336655.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E76" s="2">
-        <v>45249.416666666664</v>
+        <v>45260.854166666664</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="3"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>336655.0</v>
+        <v>336943.0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E77" s="2">
-        <v>45260.854166666664</v>
+        <v>45261.80208332176</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="3"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>336943.0</v>
+        <v>336673.0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45302.854166666664</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E78" s="2">
-        <v>45261.80208332176</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>336673.0</v>
+        <v>336337.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E79" s="2">
-        <v>45302.854166666664</v>
+        <v>45314.854166666664</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>336337.0</v>
+        <v>336683.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E80" s="2">
-        <v>45314.854166666664</v>
+        <v>45316.854166666664</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>336683.0</v>
+        <v>337085.0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E81" s="2">
-        <v>45316.854166666664</v>
+        <v>45317.78125</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="J81" s="3"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>337085.0</v>
+        <v>337102.0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E82" s="2">
-        <v>45317.78125</v>
+        <v>45353.5625</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="J82" s="3"/>
       <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="1">
-        <v>337102.0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="2">
-        <v>45353.5625</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="4"/>
     </row>
     <row r="84">
-      <c r="E84" s="4"/>
+      <c r="E84" s="10"/>
+      <c r="J84" s="11"/>
+      <c r="L84" s="11"/>
     </row>
     <row r="85">
-      <c r="E85" s="4"/>
+      <c r="E85" s="10"/>
+      <c r="J85" s="11"/>
+      <c r="L85" s="11"/>
     </row>
     <row r="86">
-      <c r="E86" s="4"/>
+      <c r="E86" s="10"/>
+      <c r="J86" s="11"/>
+      <c r="L86" s="11"/>
     </row>
     <row r="87">
-      <c r="E87" s="4"/>
+      <c r="E87" s="10"/>
+      <c r="J87" s="11"/>
+      <c r="L87" s="11"/>
     </row>
     <row r="88">
-      <c r="E88" s="4"/>
+      <c r="E88" s="10"/>
+      <c r="J88" s="11"/>
+      <c r="L88" s="11"/>
     </row>
     <row r="89">
-      <c r="E89" s="4"/>
+      <c r="E89" s="10"/>
+      <c r="J89" s="11"/>
+      <c r="L89" s="11"/>
     </row>
     <row r="90">
-      <c r="E90" s="4"/>
+      <c r="E90" s="10"/>
+      <c r="J90" s="11"/>
+      <c r="L90" s="11"/>
     </row>
     <row r="91">
-      <c r="E91" s="4"/>
+      <c r="E91" s="10"/>
+      <c r="J91" s="11"/>
+      <c r="L91" s="11"/>
     </row>
     <row r="92">
-      <c r="E92" s="4"/>
+      <c r="E92" s="10"/>
+      <c r="J92" s="11"/>
+      <c r="L92" s="11"/>
     </row>
     <row r="93">
-      <c r="E93" s="4"/>
+      <c r="E93" s="10"/>
+      <c r="J93" s="11"/>
+      <c r="L93" s="11"/>
     </row>
     <row r="94">
-      <c r="E94" s="4"/>
+      <c r="E94" s="10"/>
+      <c r="J94" s="11"/>
+      <c r="L94" s="11"/>
     </row>
     <row r="95">
-      <c r="E95" s="4"/>
+      <c r="E95" s="10"/>
+      <c r="J95" s="11"/>
+      <c r="L95" s="11"/>
     </row>
     <row r="96">
-      <c r="E96" s="4"/>
+      <c r="E96" s="10"/>
+      <c r="J96" s="11"/>
+      <c r="L96" s="11"/>
     </row>
     <row r="97">
-      <c r="E97" s="4"/>
+      <c r="E97" s="10"/>
+      <c r="J97" s="11"/>
+      <c r="L97" s="11"/>
     </row>
     <row r="98">
-      <c r="E98" s="4"/>
+      <c r="E98" s="10"/>
+      <c r="J98" s="11"/>
+      <c r="L98" s="11"/>
     </row>
     <row r="99">
-      <c r="E99" s="4"/>
+      <c r="E99" s="10"/>
+      <c r="J99" s="11"/>
+      <c r="L99" s="11"/>
     </row>
     <row r="100">
-      <c r="E100" s="4"/>
+      <c r="E100" s="10"/>
+      <c r="J100" s="11"/>
+      <c r="L100" s="11"/>
     </row>
     <row r="101">
-      <c r="E101" s="4"/>
+      <c r="E101" s="10"/>
+      <c r="J101" s="11"/>
+      <c r="L101" s="11"/>
     </row>
     <row r="102">
-      <c r="E102" s="4"/>
+      <c r="E102" s="10"/>
+      <c r="J102" s="11"/>
+      <c r="L102" s="11"/>
     </row>
     <row r="103">
-      <c r="E103" s="4"/>
+      <c r="E103" s="10"/>
+      <c r="J103" s="11"/>
+      <c r="L103" s="11"/>
     </row>
     <row r="104">
-      <c r="E104" s="4"/>
+      <c r="E104" s="10"/>
+      <c r="J104" s="11"/>
+      <c r="L104" s="11"/>
     </row>
     <row r="105">
-      <c r="E105" s="4"/>
+      <c r="E105" s="10"/>
+      <c r="J105" s="11"/>
+      <c r="L105" s="11"/>
     </row>
     <row r="106">
-      <c r="E106" s="4"/>
+      <c r="E106" s="10"/>
+      <c r="J106" s="11"/>
+      <c r="L106" s="11"/>
     </row>
     <row r="107">
-      <c r="E107" s="4"/>
+      <c r="E107" s="10"/>
+      <c r="J107" s="11"/>
+      <c r="L107" s="11"/>
     </row>
     <row r="108">
-      <c r="E108" s="4"/>
+      <c r="E108" s="10"/>
+      <c r="J108" s="11"/>
+      <c r="L108" s="11"/>
     </row>
     <row r="109">
-      <c r="E109" s="4"/>
+      <c r="E109" s="10"/>
+      <c r="J109" s="11"/>
+      <c r="L109" s="11"/>
     </row>
     <row r="110">
-      <c r="E110" s="4"/>
+      <c r="E110" s="10"/>
+      <c r="J110" s="11"/>
+      <c r="L110" s="11"/>
     </row>
     <row r="111">
-      <c r="E111" s="4"/>
+      <c r="E111" s="10"/>
+      <c r="J111" s="11"/>
+      <c r="L111" s="11"/>
     </row>
     <row r="112">
-      <c r="E112" s="4"/>
+      <c r="E112" s="10"/>
+      <c r="J112" s="11"/>
+      <c r="L112" s="11"/>
     </row>
     <row r="113">
-      <c r="E113" s="4"/>
+      <c r="E113" s="10"/>
+      <c r="J113" s="11"/>
+      <c r="L113" s="11"/>
     </row>
     <row r="114">
-      <c r="E114" s="4"/>
+      <c r="E114" s="10"/>
+      <c r="J114" s="11"/>
+      <c r="L114" s="11"/>
     </row>
     <row r="115">
-      <c r="E115" s="4"/>
+      <c r="E115" s="10"/>
+      <c r="J115" s="11"/>
+      <c r="L115" s="11"/>
     </row>
     <row r="116">
-      <c r="E116" s="4"/>
+      <c r="E116" s="10"/>
+      <c r="J116" s="11"/>
+      <c r="L116" s="11"/>
     </row>
     <row r="117">
-      <c r="E117" s="4"/>
+      <c r="E117" s="10"/>
+      <c r="J117" s="11"/>
+      <c r="L117" s="11"/>
     </row>
     <row r="118">
-      <c r="E118" s="4"/>
+      <c r="E118" s="10"/>
+      <c r="J118" s="11"/>
+      <c r="L118" s="11"/>
     </row>
     <row r="119">
-      <c r="E119" s="4"/>
+      <c r="E119" s="10"/>
+      <c r="J119" s="11"/>
+      <c r="L119" s="11"/>
     </row>
     <row r="120">
-      <c r="E120" s="4"/>
+      <c r="E120" s="10"/>
+      <c r="J120" s="11"/>
+      <c r="L120" s="11"/>
     </row>
     <row r="121">
-      <c r="E121" s="4"/>
+      <c r="E121" s="10"/>
+      <c r="J121" s="11"/>
+      <c r="L121" s="11"/>
     </row>
     <row r="122">
-      <c r="E122" s="4"/>
+      <c r="E122" s="10"/>
+      <c r="J122" s="11"/>
+      <c r="L122" s="11"/>
     </row>
     <row r="123">
-      <c r="E123" s="4"/>
+      <c r="E123" s="10"/>
+      <c r="J123" s="11"/>
+      <c r="L123" s="11"/>
     </row>
     <row r="124">
-      <c r="E124" s="4"/>
+      <c r="E124" s="10"/>
+      <c r="J124" s="11"/>
+      <c r="L124" s="11"/>
     </row>
     <row r="125">
-      <c r="E125" s="4"/>
+      <c r="E125" s="10"/>
+      <c r="J125" s="11"/>
+      <c r="L125" s="11"/>
     </row>
     <row r="126">
-      <c r="E126" s="4"/>
+      <c r="E126" s="10"/>
+      <c r="J126" s="11"/>
+      <c r="L126" s="11"/>
     </row>
     <row r="127">
-      <c r="E127" s="4"/>
+      <c r="E127" s="10"/>
+      <c r="J127" s="11"/>
+      <c r="L127" s="11"/>
     </row>
     <row r="128">
-      <c r="E128" s="4"/>
+      <c r="E128" s="10"/>
+      <c r="J128" s="11"/>
+      <c r="L128" s="11"/>
     </row>
     <row r="129">
-      <c r="E129" s="4"/>
+      <c r="E129" s="10"/>
+      <c r="J129" s="11"/>
+      <c r="L129" s="11"/>
     </row>
     <row r="130">
-      <c r="E130" s="4"/>
+      <c r="E130" s="10"/>
+      <c r="J130" s="11"/>
+      <c r="L130" s="11"/>
     </row>
     <row r="131">
-      <c r="E131" s="4"/>
+      <c r="E131" s="10"/>
+      <c r="J131" s="11"/>
+      <c r="L131" s="11"/>
     </row>
     <row r="132">
-      <c r="E132" s="4"/>
+      <c r="E132" s="10"/>
+      <c r="J132" s="11"/>
+      <c r="L132" s="11"/>
     </row>
     <row r="133">
-      <c r="E133" s="4"/>
+      <c r="E133" s="10"/>
+      <c r="J133" s="11"/>
+      <c r="L133" s="11"/>
     </row>
     <row r="134">
-      <c r="E134" s="4"/>
+      <c r="E134" s="10"/>
+      <c r="J134" s="11"/>
+      <c r="L134" s="11"/>
     </row>
     <row r="135">
-      <c r="E135" s="4"/>
+      <c r="E135" s="10"/>
+      <c r="J135" s="11"/>
+      <c r="L135" s="11"/>
     </row>
     <row r="136">
-      <c r="E136" s="4"/>
+      <c r="E136" s="10"/>
+      <c r="J136" s="11"/>
+      <c r="L136" s="11"/>
     </row>
     <row r="137">
-      <c r="E137" s="4"/>
+      <c r="E137" s="10"/>
+      <c r="J137" s="11"/>
+      <c r="L137" s="11"/>
     </row>
     <row r="138">
-      <c r="E138" s="4"/>
+      <c r="E138" s="10"/>
+      <c r="J138" s="11"/>
+      <c r="L138" s="11"/>
     </row>
     <row r="139">
-      <c r="E139" s="4"/>
+      <c r="E139" s="10"/>
+      <c r="J139" s="11"/>
+      <c r="L139" s="11"/>
     </row>
     <row r="140">
-      <c r="E140" s="4"/>
+      <c r="E140" s="10"/>
+      <c r="J140" s="11"/>
+      <c r="L140" s="11"/>
     </row>
     <row r="141">
-      <c r="E141" s="4"/>
+      <c r="E141" s="10"/>
+      <c r="J141" s="11"/>
+      <c r="L141" s="11"/>
     </row>
     <row r="142">
-      <c r="E142" s="4"/>
+      <c r="E142" s="10"/>
+      <c r="J142" s="11"/>
+      <c r="L142" s="11"/>
     </row>
     <row r="143">
-      <c r="E143" s="4"/>
+      <c r="E143" s="10"/>
+      <c r="J143" s="11"/>
+      <c r="L143" s="11"/>
     </row>
     <row r="144">
-      <c r="E144" s="4"/>
+      <c r="E144" s="10"/>
+      <c r="J144" s="11"/>
+      <c r="L144" s="11"/>
     </row>
     <row r="145">
-      <c r="E145" s="4"/>
+      <c r="E145" s="10"/>
+      <c r="J145" s="11"/>
+      <c r="L145" s="11"/>
     </row>
     <row r="146">
-      <c r="E146" s="4"/>
+      <c r="E146" s="10"/>
+      <c r="J146" s="11"/>
+      <c r="L146" s="11"/>
     </row>
     <row r="147">
-      <c r="E147" s="4"/>
+      <c r="E147" s="10"/>
+      <c r="J147" s="11"/>
+      <c r="L147" s="11"/>
     </row>
     <row r="148">
-      <c r="E148" s="4"/>
+      <c r="E148" s="10"/>
+      <c r="J148" s="11"/>
+      <c r="L148" s="11"/>
     </row>
     <row r="149">
-      <c r="E149" s="4"/>
+      <c r="E149" s="10"/>
+      <c r="J149" s="11"/>
+      <c r="L149" s="11"/>
     </row>
     <row r="150">
-      <c r="E150" s="4"/>
+      <c r="E150" s="10"/>
+      <c r="J150" s="11"/>
+      <c r="L150" s="11"/>
     </row>
     <row r="151">
-      <c r="E151" s="4"/>
+      <c r="E151" s="10"/>
+      <c r="J151" s="11"/>
+      <c r="L151" s="11"/>
     </row>
     <row r="152">
-      <c r="E152" s="4"/>
+      <c r="E152" s="10"/>
+      <c r="J152" s="11"/>
+      <c r="L152" s="11"/>
     </row>
     <row r="153">
-      <c r="E153" s="4"/>
+      <c r="E153" s="10"/>
+      <c r="J153" s="11"/>
+      <c r="L153" s="11"/>
     </row>
     <row r="154">
-      <c r="E154" s="4"/>
+      <c r="E154" s="10"/>
+      <c r="J154" s="11"/>
+      <c r="L154" s="11"/>
     </row>
     <row r="155">
-      <c r="E155" s="4"/>
+      <c r="E155" s="10"/>
+      <c r="J155" s="11"/>
+      <c r="L155" s="11"/>
     </row>
     <row r="156">
-      <c r="E156" s="4"/>
+      <c r="E156" s="10"/>
+      <c r="J156" s="11"/>
+      <c r="L156" s="11"/>
     </row>
     <row r="157">
-      <c r="E157" s="4"/>
+      <c r="E157" s="10"/>
+      <c r="J157" s="11"/>
+      <c r="L157" s="11"/>
     </row>
     <row r="158">
-      <c r="E158" s="4"/>
+      <c r="E158" s="10"/>
+      <c r="J158" s="11"/>
+      <c r="L158" s="11"/>
     </row>
     <row r="159">
-      <c r="E159" s="4"/>
+      <c r="E159" s="10"/>
+      <c r="J159" s="11"/>
+      <c r="L159" s="11"/>
     </row>
     <row r="160">
-      <c r="E160" s="4"/>
+      <c r="E160" s="10"/>
+      <c r="J160" s="11"/>
+      <c r="L160" s="11"/>
     </row>
     <row r="161">
-      <c r="E161" s="4"/>
+      <c r="E161" s="10"/>
+      <c r="J161" s="11"/>
+      <c r="L161" s="11"/>
     </row>
     <row r="162">
-      <c r="E162" s="4"/>
+      <c r="E162" s="10"/>
+      <c r="J162" s="11"/>
+      <c r="L162" s="11"/>
     </row>
     <row r="163">
-      <c r="E163" s="4"/>
+      <c r="E163" s="10"/>
+      <c r="J163" s="11"/>
+      <c r="L163" s="11"/>
     </row>
     <row r="164">
-      <c r="E164" s="4"/>
+      <c r="E164" s="10"/>
+      <c r="J164" s="11"/>
+      <c r="L164" s="11"/>
     </row>
     <row r="165">
-      <c r="E165" s="4"/>
+      <c r="E165" s="10"/>
+      <c r="J165" s="11"/>
+      <c r="L165" s="11"/>
     </row>
     <row r="166">
-      <c r="E166" s="4"/>
+      <c r="E166" s="10"/>
+      <c r="J166" s="11"/>
+      <c r="L166" s="11"/>
     </row>
     <row r="167">
-      <c r="E167" s="4"/>
+      <c r="E167" s="10"/>
+      <c r="J167" s="11"/>
+      <c r="L167" s="11"/>
     </row>
     <row r="168">
-      <c r="E168" s="4"/>
+      <c r="E168" s="10"/>
+      <c r="J168" s="11"/>
+      <c r="L168" s="11"/>
     </row>
     <row r="169">
-      <c r="E169" s="4"/>
+      <c r="E169" s="10"/>
+      <c r="J169" s="11"/>
+      <c r="L169" s="11"/>
     </row>
     <row r="170">
-      <c r="E170" s="4"/>
+      <c r="E170" s="10"/>
+      <c r="J170" s="11"/>
+      <c r="L170" s="11"/>
     </row>
     <row r="171">
-      <c r="E171" s="4"/>
+      <c r="E171" s="10"/>
+      <c r="J171" s="11"/>
+      <c r="L171" s="11"/>
     </row>
     <row r="172">
-      <c r="E172" s="4"/>
+      <c r="E172" s="10"/>
+      <c r="J172" s="11"/>
+      <c r="L172" s="11"/>
     </row>
     <row r="173">
-      <c r="E173" s="4"/>
+      <c r="E173" s="10"/>
+      <c r="J173" s="11"/>
+      <c r="L173" s="11"/>
     </row>
     <row r="174">
-      <c r="E174" s="4"/>
+      <c r="E174" s="10"/>
+      <c r="J174" s="11"/>
+      <c r="L174" s="11"/>
     </row>
     <row r="175">
-      <c r="E175" s="4"/>
+      <c r="E175" s="10"/>
+      <c r="J175" s="11"/>
+      <c r="L175" s="11"/>
     </row>
     <row r="176">
-      <c r="E176" s="4"/>
+      <c r="E176" s="10"/>
+      <c r="J176" s="11"/>
+      <c r="L176" s="11"/>
     </row>
     <row r="177">
-      <c r="E177" s="4"/>
+      <c r="E177" s="10"/>
+      <c r="J177" s="11"/>
+      <c r="L177" s="11"/>
     </row>
     <row r="178">
-      <c r="E178" s="4"/>
+      <c r="E178" s="10"/>
+      <c r="J178" s="11"/>
+      <c r="L178" s="11"/>
     </row>
     <row r="179">
-      <c r="E179" s="4"/>
+      <c r="E179" s="10"/>
+      <c r="J179" s="11"/>
+      <c r="L179" s="11"/>
     </row>
     <row r="180">
-      <c r="E180" s="4"/>
+      <c r="E180" s="10"/>
+      <c r="J180" s="11"/>
+      <c r="L180" s="11"/>
     </row>
     <row r="181">
-      <c r="E181" s="4"/>
+      <c r="E181" s="10"/>
+      <c r="J181" s="11"/>
+      <c r="L181" s="11"/>
     </row>
     <row r="182">
-      <c r="E182" s="4"/>
+      <c r="E182" s="10"/>
+      <c r="J182" s="11"/>
+      <c r="L182" s="11"/>
     </row>
     <row r="183">
-      <c r="E183" s="4"/>
+      <c r="E183" s="10"/>
+      <c r="J183" s="11"/>
+      <c r="L183" s="11"/>
     </row>
     <row r="184">
-      <c r="E184" s="4"/>
+      <c r="E184" s="10"/>
+      <c r="J184" s="11"/>
+      <c r="L184" s="11"/>
     </row>
     <row r="185">
-      <c r="E185" s="4"/>
+      <c r="E185" s="10"/>
+      <c r="J185" s="11"/>
+      <c r="L185" s="11"/>
     </row>
     <row r="186">
-      <c r="E186" s="4"/>
+      <c r="E186" s="10"/>
+      <c r="J186" s="11"/>
+      <c r="L186" s="11"/>
     </row>
     <row r="187">
-      <c r="E187" s="4"/>
+      <c r="E187" s="10"/>
+      <c r="J187" s="11"/>
+      <c r="L187" s="11"/>
     </row>
     <row r="188">
-      <c r="E188" s="4"/>
+      <c r="E188" s="10"/>
+      <c r="J188" s="11"/>
+      <c r="L188" s="11"/>
     </row>
     <row r="189">
-      <c r="E189" s="4"/>
+      <c r="E189" s="10"/>
+      <c r="J189" s="11"/>
+      <c r="L189" s="11"/>
     </row>
     <row r="190">
-      <c r="E190" s="4"/>
+      <c r="E190" s="10"/>
+      <c r="J190" s="11"/>
+      <c r="L190" s="11"/>
     </row>
     <row r="191">
-      <c r="E191" s="4"/>
+      <c r="E191" s="10"/>
+      <c r="J191" s="11"/>
+      <c r="L191" s="11"/>
     </row>
     <row r="192">
-      <c r="E192" s="4"/>
+      <c r="E192" s="10"/>
+      <c r="J192" s="11"/>
+      <c r="L192" s="11"/>
     </row>
     <row r="193">
-      <c r="E193" s="4"/>
+      <c r="E193" s="10"/>
+      <c r="J193" s="11"/>
+      <c r="L193" s="11"/>
     </row>
     <row r="194">
-      <c r="E194" s="4"/>
+      <c r="E194" s="10"/>
+      <c r="J194" s="11"/>
+      <c r="L194" s="11"/>
     </row>
     <row r="195">
-      <c r="E195" s="4"/>
+      <c r="E195" s="10"/>
+      <c r="J195" s="11"/>
+      <c r="L195" s="11"/>
     </row>
     <row r="196">
-      <c r="E196" s="4"/>
+      <c r="E196" s="10"/>
+      <c r="J196" s="11"/>
+      <c r="L196" s="11"/>
     </row>
     <row r="197">
-      <c r="E197" s="4"/>
+      <c r="E197" s="10"/>
+      <c r="J197" s="11"/>
+      <c r="L197" s="11"/>
     </row>
     <row r="198">
-      <c r="E198" s="4"/>
+      <c r="E198" s="10"/>
+      <c r="J198" s="11"/>
+      <c r="L198" s="11"/>
     </row>
     <row r="199">
-      <c r="E199" s="4"/>
+      <c r="E199" s="10"/>
+      <c r="J199" s="11"/>
+      <c r="L199" s="11"/>
     </row>
     <row r="200">
-      <c r="E200" s="4"/>
+      <c r="E200" s="10"/>
+      <c r="J200" s="11"/>
+      <c r="L200" s="11"/>
     </row>
     <row r="201">
-      <c r="E201" s="4"/>
+      <c r="E201" s="10"/>
+      <c r="J201" s="11"/>
+      <c r="L201" s="11"/>
     </row>
     <row r="202">
-      <c r="E202" s="4"/>
+      <c r="E202" s="10"/>
+      <c r="J202" s="11"/>
+      <c r="L202" s="11"/>
     </row>
     <row r="203">
-      <c r="E203" s="4"/>
+      <c r="E203" s="10"/>
+      <c r="J203" s="11"/>
+      <c r="L203" s="11"/>
     </row>
     <row r="204">
-      <c r="E204" s="4"/>
+      <c r="E204" s="10"/>
+      <c r="J204" s="11"/>
+      <c r="L204" s="11"/>
     </row>
     <row r="205">
-      <c r="E205" s="4"/>
+      <c r="E205" s="10"/>
+      <c r="J205" s="11"/>
+      <c r="L205" s="11"/>
     </row>
     <row r="206">
-      <c r="E206" s="4"/>
+      <c r="E206" s="10"/>
+      <c r="J206" s="11"/>
+      <c r="L206" s="11"/>
     </row>
     <row r="207">
-      <c r="E207" s="4"/>
+      <c r="E207" s="10"/>
+      <c r="J207" s="11"/>
+      <c r="L207" s="11"/>
     </row>
     <row r="208">
-      <c r="E208" s="4"/>
+      <c r="E208" s="10"/>
+      <c r="J208" s="11"/>
+      <c r="L208" s="11"/>
     </row>
     <row r="209">
-      <c r="E209" s="4"/>
+      <c r="E209" s="10"/>
+      <c r="J209" s="11"/>
+      <c r="L209" s="11"/>
     </row>
     <row r="210">
-      <c r="E210" s="4"/>
+      <c r="E210" s="10"/>
+      <c r="J210" s="11"/>
+      <c r="L210" s="11"/>
     </row>
     <row r="211">
-      <c r="E211" s="4"/>
+      <c r="E211" s="10"/>
+      <c r="J211" s="11"/>
+      <c r="L211" s="11"/>
     </row>
     <row r="212">
-      <c r="E212" s="4"/>
+      <c r="E212" s="10"/>
+      <c r="J212" s="11"/>
+      <c r="L212" s="11"/>
     </row>
     <row r="213">
-      <c r="E213" s="4"/>
+      <c r="E213" s="10"/>
+      <c r="J213" s="11"/>
+      <c r="L213" s="11"/>
     </row>
     <row r="214">
-      <c r="E214" s="4"/>
+      <c r="E214" s="10"/>
+      <c r="J214" s="11"/>
+      <c r="L214" s="11"/>
     </row>
     <row r="215">
-      <c r="E215" s="4"/>
+      <c r="E215" s="10"/>
+      <c r="J215" s="11"/>
+      <c r="L215" s="11"/>
     </row>
     <row r="216">
-      <c r="E216" s="4"/>
+      <c r="E216" s="10"/>
+      <c r="J216" s="11"/>
+      <c r="L216" s="11"/>
     </row>
     <row r="217">
-      <c r="E217" s="4"/>
+      <c r="E217" s="10"/>
+      <c r="J217" s="11"/>
+      <c r="L217" s="11"/>
     </row>
     <row r="218">
-      <c r="E218" s="4"/>
+      <c r="E218" s="10"/>
+      <c r="J218" s="11"/>
+      <c r="L218" s="11"/>
     </row>
     <row r="219">
-      <c r="E219" s="4"/>
+      <c r="E219" s="10"/>
+      <c r="J219" s="11"/>
+      <c r="L219" s="11"/>
     </row>
     <row r="220">
-      <c r="E220" s="4"/>
+      <c r="E220" s="10"/>
+      <c r="J220" s="11"/>
+      <c r="L220" s="11"/>
     </row>
     <row r="221">
-      <c r="E221" s="4"/>
+      <c r="E221" s="10"/>
+      <c r="J221" s="11"/>
+      <c r="L221" s="11"/>
     </row>
     <row r="222">
-      <c r="E222" s="4"/>
+      <c r="E222" s="10"/>
+      <c r="J222" s="11"/>
+      <c r="L222" s="11"/>
     </row>
     <row r="223">
-      <c r="E223" s="4"/>
+      <c r="E223" s="10"/>
+      <c r="J223" s="11"/>
+      <c r="L223" s="11"/>
     </row>
     <row r="224">
-      <c r="E224" s="4"/>
+      <c r="E224" s="10"/>
+      <c r="J224" s="11"/>
+      <c r="L224" s="11"/>
     </row>
     <row r="225">
-      <c r="E225" s="4"/>
+      <c r="E225" s="10"/>
+      <c r="J225" s="11"/>
+      <c r="L225" s="11"/>
     </row>
     <row r="226">
-      <c r="E226" s="4"/>
+      <c r="E226" s="10"/>
+      <c r="J226" s="11"/>
+      <c r="L226" s="11"/>
     </row>
     <row r="227">
-      <c r="E227" s="4"/>
+      <c r="E227" s="10"/>
+      <c r="J227" s="11"/>
+      <c r="L227" s="11"/>
     </row>
     <row r="228">
-      <c r="E228" s="4"/>
+      <c r="E228" s="10"/>
+      <c r="J228" s="11"/>
+      <c r="L228" s="11"/>
     </row>
     <row r="229">
-      <c r="E229" s="4"/>
+      <c r="E229" s="10"/>
+      <c r="J229" s="11"/>
+      <c r="L229" s="11"/>
     </row>
     <row r="230">
-      <c r="E230" s="4"/>
+      <c r="E230" s="10"/>
+      <c r="J230" s="11"/>
+      <c r="L230" s="11"/>
     </row>
     <row r="231">
-      <c r="E231" s="4"/>
+      <c r="E231" s="10"/>
+      <c r="J231" s="11"/>
+      <c r="L231" s="11"/>
     </row>
     <row r="232">
-      <c r="E232" s="4"/>
+      <c r="E232" s="10"/>
+      <c r="J232" s="11"/>
+      <c r="L232" s="11"/>
     </row>
     <row r="233">
-      <c r="E233" s="4"/>
+      <c r="E233" s="10"/>
+      <c r="J233" s="11"/>
+      <c r="L233" s="11"/>
     </row>
     <row r="234">
-      <c r="E234" s="4"/>
+      <c r="E234" s="10"/>
+      <c r="J234" s="11"/>
+      <c r="L234" s="11"/>
     </row>
     <row r="235">
-      <c r="E235" s="4"/>
+      <c r="E235" s="10"/>
+      <c r="J235" s="11"/>
+      <c r="L235" s="11"/>
     </row>
     <row r="236">
-      <c r="E236" s="4"/>
+      <c r="E236" s="10"/>
+      <c r="J236" s="11"/>
+      <c r="L236" s="11"/>
     </row>
     <row r="237">
-      <c r="E237" s="4"/>
+      <c r="E237" s="10"/>
+      <c r="J237" s="11"/>
+      <c r="L237" s="11"/>
     </row>
     <row r="238">
-      <c r="E238" s="4"/>
+      <c r="E238" s="10"/>
+      <c r="J238" s="11"/>
+      <c r="L238" s="11"/>
     </row>
     <row r="239">
-      <c r="E239" s="4"/>
+      <c r="E239" s="10"/>
+      <c r="J239" s="11"/>
+      <c r="L239" s="11"/>
     </row>
     <row r="240">
-      <c r="E240" s="4"/>
+      <c r="E240" s="10"/>
+      <c r="J240" s="11"/>
+      <c r="L240" s="11"/>
     </row>
     <row r="241">
-      <c r="E241" s="4"/>
+      <c r="E241" s="10"/>
+      <c r="J241" s="11"/>
+      <c r="L241" s="11"/>
     </row>
     <row r="242">
-      <c r="E242" s="4"/>
+      <c r="E242" s="10"/>
+      <c r="J242" s="11"/>
+      <c r="L242" s="11"/>
     </row>
     <row r="243">
-      <c r="E243" s="4"/>
+      <c r="E243" s="10"/>
+      <c r="J243" s="11"/>
+      <c r="L243" s="11"/>
     </row>
     <row r="244">
-      <c r="E244" s="4"/>
+      <c r="E244" s="10"/>
+      <c r="J244" s="11"/>
+      <c r="L244" s="11"/>
     </row>
     <row r="245">
-      <c r="E245" s="4"/>
+      <c r="E245" s="10"/>
+      <c r="J245" s="11"/>
+      <c r="L245" s="11"/>
     </row>
     <row r="246">
-      <c r="E246" s="4"/>
+      <c r="E246" s="10"/>
+      <c r="J246" s="11"/>
+      <c r="L246" s="11"/>
     </row>
     <row r="247">
-      <c r="E247" s="4"/>
+      <c r="E247" s="10"/>
+      <c r="J247" s="11"/>
+      <c r="L247" s="11"/>
     </row>
     <row r="248">
-      <c r="E248" s="4"/>
+      <c r="E248" s="10"/>
+      <c r="J248" s="11"/>
+      <c r="L248" s="11"/>
     </row>
     <row r="249">
-      <c r="E249" s="4"/>
+      <c r="E249" s="10"/>
+      <c r="J249" s="11"/>
+      <c r="L249" s="11"/>
     </row>
     <row r="250">
-      <c r="E250" s="4"/>
+      <c r="E250" s="10"/>
+      <c r="J250" s="11"/>
+      <c r="L250" s="11"/>
     </row>
     <row r="251">
-      <c r="E251" s="4"/>
+      <c r="E251" s="10"/>
+      <c r="J251" s="11"/>
+      <c r="L251" s="11"/>
     </row>
     <row r="252">
-      <c r="E252" s="4"/>
+      <c r="E252" s="10"/>
+      <c r="J252" s="11"/>
+      <c r="L252" s="11"/>
     </row>
     <row r="253">
-      <c r="E253" s="4"/>
+      <c r="E253" s="10"/>
+      <c r="J253" s="11"/>
+      <c r="L253" s="11"/>
     </row>
     <row r="254">
-      <c r="E254" s="4"/>
+      <c r="E254" s="10"/>
+      <c r="J254" s="11"/>
+      <c r="L254" s="11"/>
     </row>
     <row r="255">
-      <c r="E255" s="4"/>
+      <c r="E255" s="10"/>
+      <c r="J255" s="11"/>
+      <c r="L255" s="11"/>
     </row>
     <row r="256">
-      <c r="E256" s="4"/>
+      <c r="E256" s="10"/>
+      <c r="J256" s="11"/>
+      <c r="L256" s="11"/>
     </row>
     <row r="257">
-      <c r="E257" s="4"/>
+      <c r="E257" s="10"/>
+      <c r="J257" s="11"/>
+      <c r="L257" s="11"/>
     </row>
     <row r="258">
-      <c r="E258" s="4"/>
+      <c r="E258" s="10"/>
+      <c r="J258" s="11"/>
+      <c r="L258" s="11"/>
     </row>
     <row r="259">
-      <c r="E259" s="4"/>
+      <c r="E259" s="10"/>
+      <c r="J259" s="11"/>
+      <c r="L259" s="11"/>
     </row>
     <row r="260">
-      <c r="E260" s="4"/>
+      <c r="E260" s="10"/>
+      <c r="J260" s="11"/>
+      <c r="L260" s="11"/>
     </row>
     <row r="261">
-      <c r="E261" s="4"/>
+      <c r="E261" s="10"/>
+      <c r="J261" s="11"/>
+      <c r="L261" s="11"/>
     </row>
     <row r="262">
-      <c r="E262" s="4"/>
+      <c r="E262" s="10"/>
+      <c r="J262" s="11"/>
+      <c r="L262" s="11"/>
     </row>
     <row r="263">
-      <c r="E263" s="4"/>
+      <c r="E263" s="10"/>
+      <c r="J263" s="11"/>
+      <c r="L263" s="11"/>
     </row>
     <row r="264">
-      <c r="E264" s="4"/>
+      <c r="E264" s="10"/>
+      <c r="J264" s="11"/>
+      <c r="L264" s="11"/>
     </row>
     <row r="265">
-      <c r="E265" s="4"/>
+      <c r="E265" s="10"/>
+      <c r="J265" s="11"/>
+      <c r="L265" s="11"/>
     </row>
     <row r="266">
-      <c r="E266" s="4"/>
+      <c r="E266" s="10"/>
+      <c r="J266" s="11"/>
+      <c r="L266" s="11"/>
     </row>
     <row r="267">
-      <c r="E267" s="4"/>
+      <c r="E267" s="10"/>
+      <c r="J267" s="11"/>
+      <c r="L267" s="11"/>
     </row>
     <row r="268">
-      <c r="E268" s="4"/>
+      <c r="E268" s="10"/>
+      <c r="J268" s="11"/>
+      <c r="L268" s="11"/>
     </row>
     <row r="269">
-      <c r="E269" s="4"/>
+      <c r="E269" s="10"/>
+      <c r="J269" s="11"/>
+      <c r="L269" s="11"/>
     </row>
     <row r="270">
-      <c r="E270" s="4"/>
+      <c r="E270" s="10"/>
+      <c r="J270" s="11"/>
+      <c r="L270" s="11"/>
     </row>
     <row r="271">
-      <c r="E271" s="4"/>
+      <c r="E271" s="10"/>
+      <c r="J271" s="11"/>
+      <c r="L271" s="11"/>
     </row>
     <row r="272">
-      <c r="E272" s="4"/>
+      <c r="E272" s="10"/>
+      <c r="J272" s="11"/>
+      <c r="L272" s="11"/>
     </row>
     <row r="273">
-      <c r="E273" s="4"/>
+      <c r="E273" s="10"/>
+      <c r="J273" s="11"/>
+      <c r="L273" s="11"/>
     </row>
     <row r="274">
-      <c r="E274" s="4"/>
+      <c r="E274" s="10"/>
+      <c r="J274" s="11"/>
+      <c r="L274" s="11"/>
     </row>
     <row r="275">
-      <c r="E275" s="4"/>
+      <c r="E275" s="10"/>
+      <c r="J275" s="11"/>
+      <c r="L275" s="11"/>
     </row>
     <row r="276">
-      <c r="E276" s="4"/>
+      <c r="E276" s="10"/>
+      <c r="J276" s="11"/>
+      <c r="L276" s="11"/>
     </row>
     <row r="277">
-      <c r="E277" s="4"/>
+      <c r="E277" s="10"/>
+      <c r="J277" s="11"/>
+      <c r="L277" s="11"/>
     </row>
     <row r="278">
-      <c r="E278" s="4"/>
+      <c r="E278" s="10"/>
+      <c r="J278" s="11"/>
+      <c r="L278" s="11"/>
     </row>
     <row r="279">
-      <c r="E279" s="4"/>
+      <c r="E279" s="10"/>
+      <c r="J279" s="11"/>
+      <c r="L279" s="11"/>
     </row>
     <row r="280">
-      <c r="E280" s="4"/>
+      <c r="E280" s="10"/>
+      <c r="J280" s="11"/>
+      <c r="L280" s="11"/>
     </row>
     <row r="281">
-      <c r="E281" s="4"/>
+      <c r="E281" s="10"/>
+      <c r="J281" s="11"/>
+      <c r="L281" s="11"/>
     </row>
     <row r="282">
-      <c r="E282" s="4"/>
+      <c r="E282" s="10"/>
+      <c r="J282" s="11"/>
+      <c r="L282" s="11"/>
     </row>
     <row r="283">
-      <c r="E283" s="4"/>
+      <c r="E283" s="10"/>
+      <c r="J283" s="11"/>
+      <c r="L283" s="11"/>
     </row>
     <row r="284">
-      <c r="E284" s="4"/>
+      <c r="E284" s="10"/>
+      <c r="J284" s="11"/>
+      <c r="L284" s="11"/>
     </row>
     <row r="285">
-      <c r="E285" s="4"/>
+      <c r="E285" s="10"/>
+      <c r="J285" s="11"/>
+      <c r="L285" s="11"/>
     </row>
     <row r="286">
-      <c r="E286" s="4"/>
+      <c r="E286" s="10"/>
+      <c r="J286" s="11"/>
+      <c r="L286" s="11"/>
     </row>
     <row r="287">
-      <c r="E287" s="4"/>
+      <c r="E287" s="10"/>
+      <c r="J287" s="11"/>
+      <c r="L287" s="11"/>
     </row>
     <row r="288">
-      <c r="E288" s="4"/>
+      <c r="E288" s="10"/>
+      <c r="J288" s="11"/>
+      <c r="L288" s="11"/>
     </row>
     <row r="289">
-      <c r="E289" s="4"/>
+      <c r="E289" s="10"/>
+      <c r="J289" s="11"/>
+      <c r="L289" s="11"/>
     </row>
     <row r="290">
-      <c r="E290" s="4"/>
+      <c r="E290" s="10"/>
+      <c r="J290" s="11"/>
+      <c r="L290" s="11"/>
     </row>
     <row r="291">
-      <c r="E291" s="4"/>
+      <c r="E291" s="10"/>
+      <c r="J291" s="11"/>
+      <c r="L291" s="11"/>
     </row>
     <row r="292">
-      <c r="E292" s="4"/>
+      <c r="E292" s="10"/>
+      <c r="J292" s="11"/>
+      <c r="L292" s="11"/>
     </row>
     <row r="293">
-      <c r="E293" s="4"/>
+      <c r="E293" s="10"/>
+      <c r="J293" s="11"/>
+      <c r="L293" s="11"/>
     </row>
     <row r="294">
-      <c r="E294" s="4"/>
+      <c r="E294" s="10"/>
+      <c r="J294" s="11"/>
+      <c r="L294" s="11"/>
     </row>
     <row r="295">
-      <c r="E295" s="4"/>
+      <c r="E295" s="10"/>
+      <c r="J295" s="11"/>
+      <c r="L295" s="11"/>
     </row>
     <row r="296">
-      <c r="E296" s="4"/>
+      <c r="E296" s="10"/>
+      <c r="J296" s="11"/>
+      <c r="L296" s="11"/>
     </row>
     <row r="297">
-      <c r="E297" s="4"/>
+      <c r="E297" s="10"/>
+      <c r="J297" s="11"/>
+      <c r="L297" s="11"/>
     </row>
     <row r="298">
-      <c r="E298" s="4"/>
+      <c r="E298" s="10"/>
+      <c r="J298" s="11"/>
+      <c r="L298" s="11"/>
     </row>
     <row r="299">
-      <c r="E299" s="4"/>
+      <c r="E299" s="10"/>
+      <c r="J299" s="11"/>
+      <c r="L299" s="11"/>
     </row>
     <row r="300">
-      <c r="E300" s="4"/>
+      <c r="E300" s="10"/>
+      <c r="J300" s="11"/>
+      <c r="L300" s="11"/>
     </row>
     <row r="301">
-      <c r="E301" s="4"/>
+      <c r="E301" s="10"/>
+      <c r="J301" s="11"/>
+      <c r="L301" s="11"/>
     </row>
     <row r="302">
-      <c r="E302" s="4"/>
+      <c r="E302" s="10"/>
+      <c r="J302" s="11"/>
+      <c r="L302" s="11"/>
     </row>
     <row r="303">
-      <c r="E303" s="4"/>
+      <c r="E303" s="10"/>
+      <c r="J303" s="11"/>
+      <c r="L303" s="11"/>
     </row>
     <row r="304">
-      <c r="E304" s="4"/>
+      <c r="E304" s="10"/>
+      <c r="J304" s="11"/>
+      <c r="L304" s="11"/>
     </row>
     <row r="305">
-      <c r="E305" s="4"/>
+      <c r="E305" s="10"/>
+      <c r="J305" s="11"/>
+      <c r="L305" s="11"/>
     </row>
     <row r="306">
-      <c r="E306" s="4"/>
+      <c r="E306" s="10"/>
+      <c r="J306" s="11"/>
+      <c r="L306" s="11"/>
     </row>
     <row r="307">
-      <c r="E307" s="4"/>
+      <c r="E307" s="10"/>
+      <c r="J307" s="11"/>
+      <c r="L307" s="11"/>
     </row>
     <row r="308">
-      <c r="E308" s="4"/>
+      <c r="E308" s="10"/>
+      <c r="J308" s="11"/>
+      <c r="L308" s="11"/>
     </row>
     <row r="309">
-      <c r="E309" s="4"/>
+      <c r="E309" s="10"/>
+      <c r="J309" s="11"/>
+      <c r="L309" s="11"/>
     </row>
     <row r="310">
-      <c r="E310" s="4"/>
+      <c r="E310" s="10"/>
+      <c r="J310" s="11"/>
+      <c r="L310" s="11"/>
     </row>
     <row r="311">
-      <c r="E311" s="4"/>
+      <c r="E311" s="10"/>
+      <c r="J311" s="11"/>
+      <c r="L311" s="11"/>
     </row>
     <row r="312">
-      <c r="E312" s="4"/>
+      <c r="E312" s="10"/>
+      <c r="J312" s="11"/>
+      <c r="L312" s="11"/>
     </row>
     <row r="313">
-      <c r="E313" s="4"/>
+      <c r="E313" s="10"/>
+      <c r="J313" s="11"/>
+      <c r="L313" s="11"/>
     </row>
     <row r="314">
-      <c r="E314" s="4"/>
+      <c r="E314" s="10"/>
+      <c r="J314" s="11"/>
+      <c r="L314" s="11"/>
     </row>
     <row r="315">
-      <c r="E315" s="4"/>
+      <c r="E315" s="10"/>
+      <c r="J315" s="11"/>
+      <c r="L315" s="11"/>
     </row>
     <row r="316">
-      <c r="E316" s="4"/>
+      <c r="E316" s="10"/>
+      <c r="J316" s="11"/>
+      <c r="L316" s="11"/>
     </row>
     <row r="317">
-      <c r="E317" s="4"/>
+      <c r="E317" s="10"/>
+      <c r="J317" s="11"/>
+      <c r="L317" s="11"/>
     </row>
     <row r="318">
-      <c r="E318" s="4"/>
+      <c r="E318" s="10"/>
+      <c r="J318" s="11"/>
+      <c r="L318" s="11"/>
     </row>
     <row r="319">
-      <c r="E319" s="4"/>
+      <c r="E319" s="10"/>
+      <c r="J319" s="11"/>
+      <c r="L319" s="11"/>
     </row>
     <row r="320">
-      <c r="E320" s="4"/>
+      <c r="E320" s="10"/>
+      <c r="J320" s="11"/>
+      <c r="L320" s="11"/>
     </row>
     <row r="321">
-      <c r="E321" s="4"/>
+      <c r="E321" s="10"/>
+      <c r="J321" s="11"/>
+      <c r="L321" s="11"/>
     </row>
     <row r="322">
-      <c r="E322" s="4"/>
+      <c r="E322" s="10"/>
+      <c r="J322" s="11"/>
+      <c r="L322" s="11"/>
     </row>
     <row r="323">
-      <c r="E323" s="4"/>
+      <c r="E323" s="10"/>
+      <c r="J323" s="11"/>
+      <c r="L323" s="11"/>
     </row>
     <row r="324">
-      <c r="E324" s="4"/>
+      <c r="E324" s="10"/>
+      <c r="J324" s="11"/>
+      <c r="L324" s="11"/>
     </row>
     <row r="325">
-      <c r="E325" s="4"/>
+      <c r="E325" s="10"/>
+      <c r="J325" s="11"/>
+      <c r="L325" s="11"/>
     </row>
     <row r="326">
-      <c r="E326" s="4"/>
+      <c r="E326" s="10"/>
+      <c r="J326" s="11"/>
+      <c r="L326" s="11"/>
     </row>
     <row r="327">
-      <c r="E327" s="4"/>
+      <c r="E327" s="10"/>
+      <c r="J327" s="11"/>
+      <c r="L327" s="11"/>
     </row>
     <row r="328">
-      <c r="E328" s="4"/>
+      <c r="E328" s="10"/>
+      <c r="J328" s="11"/>
+      <c r="L328" s="11"/>
     </row>
     <row r="329">
-      <c r="E329" s="4"/>
+      <c r="E329" s="10"/>
+      <c r="J329" s="11"/>
+      <c r="L329" s="11"/>
     </row>
     <row r="330">
-      <c r="E330" s="4"/>
+      <c r="E330" s="10"/>
+      <c r="J330" s="11"/>
+      <c r="L330" s="11"/>
     </row>
     <row r="331">
-      <c r="E331" s="4"/>
+      <c r="E331" s="10"/>
+      <c r="J331" s="11"/>
+      <c r="L331" s="11"/>
     </row>
     <row r="332">
-      <c r="E332" s="4"/>
+      <c r="E332" s="10"/>
+      <c r="J332" s="11"/>
+      <c r="L332" s="11"/>
     </row>
     <row r="333">
-      <c r="E333" s="4"/>
+      <c r="E333" s="10"/>
+      <c r="J333" s="11"/>
+      <c r="L333" s="11"/>
     </row>
     <row r="334">
-      <c r="E334" s="4"/>
+      <c r="E334" s="10"/>
+      <c r="J334" s="11"/>
+      <c r="L334" s="11"/>
     </row>
     <row r="335">
-      <c r="E335" s="4"/>
+      <c r="E335" s="10"/>
+      <c r="J335" s="11"/>
+      <c r="L335" s="11"/>
     </row>
     <row r="336">
-      <c r="E336" s="4"/>
+      <c r="E336" s="10"/>
+      <c r="J336" s="11"/>
+      <c r="L336" s="11"/>
     </row>
     <row r="337">
-      <c r="E337" s="4"/>
+      <c r="E337" s="10"/>
+      <c r="J337" s="11"/>
+      <c r="L337" s="11"/>
     </row>
     <row r="338">
-      <c r="E338" s="4"/>
+      <c r="E338" s="10"/>
+      <c r="J338" s="11"/>
+      <c r="L338" s="11"/>
     </row>
     <row r="339">
-      <c r="E339" s="4"/>
+      <c r="E339" s="10"/>
+      <c r="J339" s="11"/>
+      <c r="L339" s="11"/>
     </row>
     <row r="340">
-      <c r="E340" s="4"/>
+      <c r="E340" s="10"/>
+      <c r="J340" s="11"/>
+      <c r="L340" s="11"/>
     </row>
     <row r="341">
-      <c r="E341" s="4"/>
+      <c r="E341" s="10"/>
+      <c r="J341" s="11"/>
+      <c r="L341" s="11"/>
     </row>
     <row r="342">
-      <c r="E342" s="4"/>
+      <c r="E342" s="10"/>
+      <c r="J342" s="11"/>
+      <c r="L342" s="11"/>
     </row>
     <row r="343">
-      <c r="E343" s="4"/>
+      <c r="E343" s="10"/>
+      <c r="J343" s="11"/>
+      <c r="L343" s="11"/>
     </row>
     <row r="344">
-      <c r="E344" s="4"/>
+      <c r="E344" s="10"/>
+      <c r="J344" s="11"/>
+      <c r="L344" s="11"/>
     </row>
     <row r="345">
-      <c r="E345" s="4"/>
+      <c r="E345" s="10"/>
+      <c r="J345" s="11"/>
+      <c r="L345" s="11"/>
     </row>
     <row r="346">
-      <c r="E346" s="4"/>
+      <c r="E346" s="10"/>
+      <c r="J346" s="11"/>
+      <c r="L346" s="11"/>
     </row>
     <row r="347">
-      <c r="E347" s="4"/>
+      <c r="E347" s="10"/>
+      <c r="J347" s="11"/>
+      <c r="L347" s="11"/>
     </row>
     <row r="348">
-      <c r="E348" s="4"/>
+      <c r="E348" s="10"/>
+      <c r="J348" s="11"/>
+      <c r="L348" s="11"/>
     </row>
     <row r="349">
-      <c r="E349" s="4"/>
+      <c r="E349" s="10"/>
+      <c r="J349" s="11"/>
+      <c r="L349" s="11"/>
     </row>
     <row r="350">
-      <c r="E350" s="4"/>
+      <c r="E350" s="10"/>
+      <c r="J350" s="11"/>
+      <c r="L350" s="11"/>
     </row>
     <row r="351">
-      <c r="E351" s="4"/>
+      <c r="E351" s="10"/>
+      <c r="J351" s="11"/>
+      <c r="L351" s="11"/>
     </row>
     <row r="352">
-      <c r="E352" s="4"/>
+      <c r="E352" s="10"/>
+      <c r="J352" s="11"/>
+      <c r="L352" s="11"/>
     </row>
     <row r="353">
-      <c r="E353" s="4"/>
+      <c r="E353" s="10"/>
+      <c r="J353" s="11"/>
+      <c r="L353" s="11"/>
     </row>
     <row r="354">
-      <c r="E354" s="4"/>
+      <c r="E354" s="10"/>
+      <c r="J354" s="11"/>
+      <c r="L354" s="11"/>
     </row>
     <row r="355">
-      <c r="E355" s="4"/>
+      <c r="E355" s="10"/>
+      <c r="J355" s="11"/>
+      <c r="L355" s="11"/>
     </row>
     <row r="356">
-      <c r="E356" s="4"/>
+      <c r="E356" s="10"/>
+      <c r="J356" s="11"/>
+      <c r="L356" s="11"/>
     </row>
     <row r="357">
-      <c r="E357" s="4"/>
+      <c r="E357" s="10"/>
+      <c r="J357" s="11"/>
+      <c r="L357" s="11"/>
     </row>
     <row r="358">
-      <c r="E358" s="4"/>
+      <c r="E358" s="10"/>
+      <c r="J358" s="11"/>
+      <c r="L358" s="11"/>
     </row>
     <row r="359">
-      <c r="E359" s="4"/>
+      <c r="E359" s="10"/>
+      <c r="J359" s="11"/>
+      <c r="L359" s="11"/>
     </row>
     <row r="360">
-      <c r="E360" s="4"/>
+      <c r="E360" s="10"/>
+      <c r="J360" s="11"/>
+      <c r="L360" s="11"/>
     </row>
     <row r="361">
-      <c r="E361" s="4"/>
+      <c r="E361" s="10"/>
+      <c r="J361" s="11"/>
+      <c r="L361" s="11"/>
     </row>
     <row r="362">
-      <c r="E362" s="4"/>
+      <c r="E362" s="10"/>
+      <c r="J362" s="11"/>
+      <c r="L362" s="11"/>
     </row>
     <row r="363">
-      <c r="E363" s="4"/>
+      <c r="E363" s="10"/>
+      <c r="J363" s="11"/>
+      <c r="L363" s="11"/>
     </row>
     <row r="364">
-      <c r="E364" s="4"/>
+      <c r="E364" s="10"/>
+      <c r="J364" s="11"/>
+      <c r="L364" s="11"/>
     </row>
     <row r="365">
-      <c r="E365" s="4"/>
+      <c r="E365" s="10"/>
+      <c r="J365" s="11"/>
+      <c r="L365" s="11"/>
     </row>
     <row r="366">
-      <c r="E366" s="4"/>
+      <c r="E366" s="10"/>
+      <c r="J366" s="11"/>
+      <c r="L366" s="11"/>
     </row>
     <row r="367">
-      <c r="E367" s="4"/>
+      <c r="E367" s="10"/>
+      <c r="J367" s="11"/>
+      <c r="L367" s="11"/>
     </row>
     <row r="368">
-      <c r="E368" s="4"/>
+      <c r="E368" s="10"/>
+      <c r="J368" s="11"/>
+      <c r="L368" s="11"/>
     </row>
     <row r="369">
-      <c r="E369" s="4"/>
+      <c r="E369" s="10"/>
+      <c r="J369" s="11"/>
+      <c r="L369" s="11"/>
     </row>
     <row r="370">
-      <c r="E370" s="4"/>
+      <c r="E370" s="10"/>
+      <c r="J370" s="11"/>
+      <c r="L370" s="11"/>
     </row>
     <row r="371">
-      <c r="E371" s="4"/>
+      <c r="E371" s="10"/>
+      <c r="J371" s="11"/>
+      <c r="L371" s="11"/>
     </row>
     <row r="372">
-      <c r="E372" s="4"/>
+      <c r="E372" s="10"/>
+      <c r="J372" s="11"/>
+      <c r="L372" s="11"/>
     </row>
     <row r="373">
-      <c r="E373" s="4"/>
+      <c r="E373" s="10"/>
+      <c r="J373" s="11"/>
+      <c r="L373" s="11"/>
     </row>
     <row r="374">
-      <c r="E374" s="4"/>
+      <c r="E374" s="10"/>
+      <c r="J374" s="11"/>
+      <c r="L374" s="11"/>
     </row>
     <row r="375">
-      <c r="E375" s="4"/>
+      <c r="E375" s="10"/>
+      <c r="J375" s="11"/>
+      <c r="L375" s="11"/>
     </row>
     <row r="376">
-      <c r="E376" s="4"/>
+      <c r="E376" s="10"/>
+      <c r="J376" s="11"/>
+      <c r="L376" s="11"/>
     </row>
     <row r="377">
-      <c r="E377" s="4"/>
+      <c r="E377" s="10"/>
+      <c r="J377" s="11"/>
+      <c r="L377" s="11"/>
     </row>
     <row r="378">
-      <c r="E378" s="4"/>
+      <c r="E378" s="10"/>
+      <c r="J378" s="11"/>
+      <c r="L378" s="11"/>
     </row>
     <row r="379">
-      <c r="E379" s="4"/>
+      <c r="E379" s="10"/>
+      <c r="J379" s="11"/>
+      <c r="L379" s="11"/>
     </row>
     <row r="380">
-      <c r="E380" s="4"/>
+      <c r="E380" s="10"/>
+      <c r="J380" s="11"/>
+      <c r="L380" s="11"/>
     </row>
     <row r="381">
-      <c r="E381" s="4"/>
+      <c r="E381" s="10"/>
+      <c r="J381" s="11"/>
+      <c r="L381" s="11"/>
     </row>
     <row r="382">
-      <c r="E382" s="4"/>
+      <c r="E382" s="10"/>
+      <c r="J382" s="11"/>
+      <c r="L382" s="11"/>
     </row>
     <row r="383">
-      <c r="E383" s="4"/>
+      <c r="E383" s="10"/>
+      <c r="J383" s="11"/>
+      <c r="L383" s="11"/>
     </row>
     <row r="384">
-      <c r="E384" s="4"/>
+      <c r="E384" s="10"/>
+      <c r="J384" s="11"/>
+      <c r="L384" s="11"/>
     </row>
     <row r="385">
-      <c r="E385" s="4"/>
+      <c r="E385" s="10"/>
+      <c r="J385" s="11"/>
+      <c r="L385" s="11"/>
     </row>
     <row r="386">
-      <c r="E386" s="4"/>
+      <c r="E386" s="10"/>
+      <c r="J386" s="11"/>
+      <c r="L386" s="11"/>
     </row>
     <row r="387">
-      <c r="E387" s="4"/>
+      <c r="E387" s="10"/>
+      <c r="J387" s="11"/>
+      <c r="L387" s="11"/>
     </row>
     <row r="388">
-      <c r="E388" s="4"/>
+      <c r="E388" s="10"/>
+      <c r="J388" s="11"/>
+      <c r="L388" s="11"/>
     </row>
     <row r="389">
-      <c r="E389" s="4"/>
+      <c r="E389" s="10"/>
+      <c r="J389" s="11"/>
+      <c r="L389" s="11"/>
     </row>
     <row r="390">
-      <c r="E390" s="4"/>
+      <c r="E390" s="10"/>
+      <c r="J390" s="11"/>
+      <c r="L390" s="11"/>
     </row>
     <row r="391">
-      <c r="E391" s="4"/>
+      <c r="E391" s="10"/>
+      <c r="J391" s="11"/>
+      <c r="L391" s="11"/>
     </row>
     <row r="392">
-      <c r="E392" s="4"/>
+      <c r="E392" s="10"/>
+      <c r="J392" s="11"/>
+      <c r="L392" s="11"/>
     </row>
     <row r="393">
-      <c r="E393" s="4"/>
+      <c r="E393" s="10"/>
+      <c r="J393" s="11"/>
+      <c r="L393" s="11"/>
     </row>
     <row r="394">
-      <c r="E394" s="4"/>
+      <c r="E394" s="10"/>
+      <c r="J394" s="11"/>
+      <c r="L394" s="11"/>
     </row>
     <row r="395">
-      <c r="E395" s="4"/>
+      <c r="E395" s="10"/>
+      <c r="J395" s="11"/>
+      <c r="L395" s="11"/>
     </row>
     <row r="396">
-      <c r="E396" s="4"/>
+      <c r="E396" s="10"/>
+      <c r="J396" s="11"/>
+      <c r="L396" s="11"/>
     </row>
     <row r="397">
-      <c r="E397" s="4"/>
+      <c r="E397" s="10"/>
+      <c r="J397" s="11"/>
+      <c r="L397" s="11"/>
     </row>
     <row r="398">
-      <c r="E398" s="4"/>
+      <c r="E398" s="10"/>
+      <c r="J398" s="11"/>
+      <c r="L398" s="11"/>
     </row>
     <row r="399">
-      <c r="E399" s="4"/>
+      <c r="E399" s="10"/>
+      <c r="J399" s="11"/>
+      <c r="L399" s="11"/>
     </row>
     <row r="400">
-      <c r="E400" s="4"/>
+      <c r="E400" s="10"/>
+      <c r="J400" s="11"/>
+      <c r="L400" s="11"/>
     </row>
     <row r="401">
-      <c r="E401" s="4"/>
+      <c r="E401" s="10"/>
+      <c r="J401" s="11"/>
+      <c r="L401" s="11"/>
     </row>
     <row r="402">
-      <c r="E402" s="4"/>
+      <c r="E402" s="10"/>
+      <c r="J402" s="11"/>
+      <c r="L402" s="11"/>
     </row>
     <row r="403">
-      <c r="E403" s="4"/>
+      <c r="E403" s="10"/>
+      <c r="J403" s="11"/>
+      <c r="L403" s="11"/>
     </row>
     <row r="404">
-      <c r="E404" s="4"/>
+      <c r="E404" s="10"/>
+      <c r="J404" s="11"/>
+      <c r="L404" s="11"/>
     </row>
     <row r="405">
-      <c r="E405" s="4"/>
+      <c r="E405" s="10"/>
+      <c r="J405" s="11"/>
+      <c r="L405" s="11"/>
     </row>
     <row r="406">
-      <c r="E406" s="4"/>
+      <c r="E406" s="10"/>
+      <c r="J406" s="11"/>
+      <c r="L406" s="11"/>
     </row>
     <row r="407">
-      <c r="E407" s="4"/>
+      <c r="E407" s="10"/>
+      <c r="J407" s="11"/>
+      <c r="L407" s="11"/>
     </row>
     <row r="408">
-      <c r="E408" s="4"/>
+      <c r="E408" s="10"/>
+      <c r="J408" s="11"/>
+      <c r="L408" s="11"/>
     </row>
     <row r="409">
-      <c r="E409" s="4"/>
+      <c r="E409" s="10"/>
+      <c r="J409" s="11"/>
+      <c r="L409" s="11"/>
     </row>
     <row r="410">
-      <c r="E410" s="4"/>
+      <c r="E410" s="10"/>
+      <c r="J410" s="11"/>
+      <c r="L410" s="11"/>
     </row>
     <row r="411">
-      <c r="E411" s="4"/>
+      <c r="E411" s="10"/>
+      <c r="J411" s="11"/>
+      <c r="L411" s="11"/>
     </row>
     <row r="412">
-      <c r="E412" s="4"/>
+      <c r="E412" s="10"/>
+      <c r="J412" s="11"/>
+      <c r="L412" s="11"/>
     </row>
     <row r="413">
-      <c r="E413" s="4"/>
+      <c r="E413" s="10"/>
+      <c r="J413" s="11"/>
+      <c r="L413" s="11"/>
     </row>
     <row r="414">
-      <c r="E414" s="4"/>
+      <c r="E414" s="10"/>
+      <c r="J414" s="11"/>
+      <c r="L414" s="11"/>
     </row>
     <row r="415">
-      <c r="E415" s="4"/>
+      <c r="E415" s="10"/>
+      <c r="J415" s="11"/>
+      <c r="L415" s="11"/>
     </row>
     <row r="416">
-      <c r="E416" s="4"/>
+      <c r="E416" s="10"/>
+      <c r="J416" s="11"/>
+      <c r="L416" s="11"/>
     </row>
     <row r="417">
-      <c r="E417" s="4"/>
+      <c r="E417" s="10"/>
+      <c r="J417" s="11"/>
+      <c r="L417" s="11"/>
     </row>
     <row r="418">
-      <c r="E418" s="4"/>
+      <c r="E418" s="10"/>
+      <c r="J418" s="11"/>
+      <c r="L418" s="11"/>
     </row>
     <row r="419">
-      <c r="E419" s="4"/>
+      <c r="E419" s="10"/>
+      <c r="J419" s="11"/>
+      <c r="L419" s="11"/>
     </row>
     <row r="420">
-      <c r="E420" s="4"/>
+      <c r="E420" s="10"/>
+      <c r="J420" s="11"/>
+      <c r="L420" s="11"/>
     </row>
     <row r="421">
-      <c r="E421" s="4"/>
+      <c r="E421" s="10"/>
+      <c r="J421" s="11"/>
+      <c r="L421" s="11"/>
     </row>
     <row r="422">
-      <c r="E422" s="4"/>
+      <c r="E422" s="10"/>
+      <c r="J422" s="11"/>
+      <c r="L422" s="11"/>
     </row>
     <row r="423">
-      <c r="E423" s="4"/>
+      <c r="E423" s="10"/>
+      <c r="J423" s="11"/>
+      <c r="L423" s="11"/>
     </row>
     <row r="424">
-      <c r="E424" s="4"/>
+      <c r="E424" s="10"/>
+      <c r="J424" s="11"/>
+      <c r="L424" s="11"/>
     </row>
     <row r="425">
-      <c r="E425" s="4"/>
+      <c r="E425" s="10"/>
+      <c r="J425" s="11"/>
+      <c r="L425" s="11"/>
     </row>
     <row r="426">
-      <c r="E426" s="4"/>
+      <c r="E426" s="10"/>
+      <c r="J426" s="11"/>
+      <c r="L426" s="11"/>
     </row>
     <row r="427">
-      <c r="E427" s="4"/>
+      <c r="E427" s="10"/>
+      <c r="J427" s="11"/>
+      <c r="L427" s="11"/>
     </row>
     <row r="428">
-      <c r="E428" s="4"/>
+      <c r="E428" s="10"/>
+      <c r="J428" s="11"/>
+      <c r="L428" s="11"/>
     </row>
     <row r="429">
-      <c r="E429" s="4"/>
+      <c r="E429" s="10"/>
+      <c r="J429" s="11"/>
+      <c r="L429" s="11"/>
     </row>
     <row r="430">
-      <c r="E430" s="4"/>
+      <c r="E430" s="10"/>
+      <c r="J430" s="11"/>
+      <c r="L430" s="11"/>
     </row>
     <row r="431">
-      <c r="E431" s="4"/>
+      <c r="E431" s="10"/>
+      <c r="J431" s="11"/>
+      <c r="L431" s="11"/>
     </row>
     <row r="432">
-      <c r="E432" s="4"/>
+      <c r="E432" s="10"/>
+      <c r="J432" s="11"/>
+      <c r="L432" s="11"/>
     </row>
     <row r="433">
-      <c r="E433" s="4"/>
+      <c r="E433" s="10"/>
+      <c r="J433" s="11"/>
+      <c r="L433" s="11"/>
     </row>
     <row r="434">
-      <c r="E434" s="4"/>
+      <c r="E434" s="10"/>
+      <c r="J434" s="11"/>
+      <c r="L434" s="11"/>
     </row>
     <row r="435">
-      <c r="E435" s="4"/>
+      <c r="E435" s="10"/>
+      <c r="J435" s="11"/>
+      <c r="L435" s="11"/>
     </row>
     <row r="436">
-      <c r="E436" s="4"/>
+      <c r="E436" s="10"/>
+      <c r="J436" s="11"/>
+      <c r="L436" s="11"/>
     </row>
     <row r="437">
-      <c r="E437" s="4"/>
+      <c r="E437" s="10"/>
+      <c r="J437" s="11"/>
+      <c r="L437" s="11"/>
     </row>
     <row r="438">
-      <c r="E438" s="4"/>
+      <c r="E438" s="10"/>
+      <c r="J438" s="11"/>
+      <c r="L438" s="11"/>
     </row>
     <row r="439">
-      <c r="E439" s="4"/>
+      <c r="E439" s="10"/>
+      <c r="J439" s="11"/>
+      <c r="L439" s="11"/>
     </row>
     <row r="440">
-      <c r="E440" s="4"/>
+      <c r="E440" s="10"/>
+      <c r="J440" s="11"/>
+      <c r="L440" s="11"/>
     </row>
     <row r="441">
-      <c r="E441" s="4"/>
+      <c r="E441" s="10"/>
+      <c r="J441" s="11"/>
+      <c r="L441" s="11"/>
     </row>
     <row r="442">
-      <c r="E442" s="4"/>
+      <c r="E442" s="10"/>
+      <c r="J442" s="11"/>
+      <c r="L442" s="11"/>
     </row>
     <row r="443">
-      <c r="E443" s="4"/>
+      <c r="E443" s="10"/>
+      <c r="J443" s="11"/>
+      <c r="L443" s="11"/>
     </row>
     <row r="444">
-      <c r="E444" s="4"/>
+      <c r="E444" s="10"/>
+      <c r="J444" s="11"/>
+      <c r="L444" s="11"/>
     </row>
     <row r="445">
-      <c r="E445" s="4"/>
+      <c r="E445" s="10"/>
+      <c r="J445" s="11"/>
+      <c r="L445" s="11"/>
     </row>
     <row r="446">
-      <c r="E446" s="4"/>
+      <c r="E446" s="10"/>
+      <c r="J446" s="11"/>
+      <c r="L446" s="11"/>
     </row>
     <row r="447">
-      <c r="E447" s="4"/>
+      <c r="E447" s="10"/>
+      <c r="J447" s="11"/>
+      <c r="L447" s="11"/>
     </row>
     <row r="448">
-      <c r="E448" s="4"/>
+      <c r="E448" s="10"/>
+      <c r="J448" s="11"/>
+      <c r="L448" s="11"/>
     </row>
     <row r="449">
-      <c r="E449" s="4"/>
+      <c r="E449" s="10"/>
+      <c r="J449" s="11"/>
+      <c r="L449" s="11"/>
     </row>
     <row r="450">
-      <c r="E450" s="4"/>
+      <c r="E450" s="10"/>
+      <c r="J450" s="11"/>
+      <c r="L450" s="11"/>
     </row>
     <row r="451">
-      <c r="E451" s="4"/>
+      <c r="E451" s="10"/>
+      <c r="J451" s="11"/>
+      <c r="L451" s="11"/>
     </row>
     <row r="452">
-      <c r="E452" s="4"/>
+      <c r="E452" s="10"/>
+      <c r="J452" s="11"/>
+      <c r="L452" s="11"/>
     </row>
     <row r="453">
-      <c r="E453" s="4"/>
+      <c r="E453" s="10"/>
+      <c r="J453" s="11"/>
+      <c r="L453" s="11"/>
     </row>
     <row r="454">
-      <c r="E454" s="4"/>
+      <c r="E454" s="10"/>
+      <c r="J454" s="11"/>
+      <c r="L454" s="11"/>
     </row>
     <row r="455">
-      <c r="E455" s="4"/>
+      <c r="E455" s="10"/>
+      <c r="J455" s="11"/>
+      <c r="L455" s="11"/>
     </row>
     <row r="456">
-      <c r="E456" s="4"/>
+      <c r="E456" s="10"/>
+      <c r="J456" s="11"/>
+      <c r="L456" s="11"/>
     </row>
     <row r="457">
-      <c r="E457" s="4"/>
+      <c r="E457" s="10"/>
+      <c r="J457" s="11"/>
+      <c r="L457" s="11"/>
     </row>
     <row r="458">
-      <c r="E458" s="4"/>
+      <c r="E458" s="10"/>
+      <c r="J458" s="11"/>
+      <c r="L458" s="11"/>
     </row>
     <row r="459">
-      <c r="E459" s="4"/>
+      <c r="E459" s="10"/>
+      <c r="J459" s="11"/>
+      <c r="L459" s="11"/>
     </row>
     <row r="460">
-      <c r="E460" s="4"/>
+      <c r="E460" s="10"/>
+      <c r="J460" s="11"/>
+      <c r="L460" s="11"/>
     </row>
     <row r="461">
-      <c r="E461" s="4"/>
+      <c r="E461" s="10"/>
+      <c r="J461" s="11"/>
+      <c r="L461" s="11"/>
     </row>
     <row r="462">
-      <c r="E462" s="4"/>
+      <c r="E462" s="10"/>
+      <c r="J462" s="11"/>
+      <c r="L462" s="11"/>
     </row>
     <row r="463">
-      <c r="E463" s="4"/>
+      <c r="E463" s="10"/>
+      <c r="J463" s="11"/>
+      <c r="L463" s="11"/>
     </row>
     <row r="464">
-      <c r="E464" s="4"/>
+      <c r="E464" s="10"/>
+      <c r="J464" s="11"/>
+      <c r="L464" s="11"/>
     </row>
     <row r="465">
-      <c r="E465" s="4"/>
+      <c r="E465" s="10"/>
+      <c r="J465" s="11"/>
+      <c r="L465" s="11"/>
     </row>
     <row r="466">
-      <c r="E466" s="4"/>
+      <c r="E466" s="10"/>
+      <c r="J466" s="11"/>
+      <c r="L466" s="11"/>
     </row>
     <row r="467">
-      <c r="E467" s="4"/>
+      <c r="E467" s="10"/>
+      <c r="J467" s="11"/>
+      <c r="L467" s="11"/>
     </row>
     <row r="468">
-      <c r="E468" s="4"/>
+      <c r="E468" s="10"/>
+      <c r="J468" s="11"/>
+      <c r="L468" s="11"/>
     </row>
     <row r="469">
-      <c r="E469" s="4"/>
+      <c r="E469" s="10"/>
+      <c r="J469" s="11"/>
+      <c r="L469" s="11"/>
     </row>
     <row r="470">
-      <c r="E470" s="4"/>
+      <c r="E470" s="10"/>
+      <c r="J470" s="11"/>
+      <c r="L470" s="11"/>
     </row>
     <row r="471">
-      <c r="E471" s="4"/>
+      <c r="E471" s="10"/>
+      <c r="J471" s="11"/>
+      <c r="L471" s="11"/>
     </row>
     <row r="472">
-      <c r="E472" s="4"/>
+      <c r="E472" s="10"/>
+      <c r="J472" s="11"/>
+      <c r="L472" s="11"/>
     </row>
     <row r="473">
-      <c r="E473" s="4"/>
+      <c r="E473" s="10"/>
+      <c r="J473" s="11"/>
+      <c r="L473" s="11"/>
     </row>
     <row r="474">
-      <c r="E474" s="4"/>
+      <c r="E474" s="10"/>
+      <c r="J474" s="11"/>
+      <c r="L474" s="11"/>
     </row>
     <row r="475">
-      <c r="E475" s="4"/>
+      <c r="E475" s="10"/>
+      <c r="J475" s="11"/>
+      <c r="L475" s="11"/>
     </row>
     <row r="476">
-      <c r="E476" s="4"/>
+      <c r="E476" s="10"/>
+      <c r="J476" s="11"/>
+      <c r="L476" s="11"/>
     </row>
     <row r="477">
-      <c r="E477" s="4"/>
+      <c r="E477" s="10"/>
+      <c r="J477" s="11"/>
+      <c r="L477" s="11"/>
     </row>
     <row r="478">
-      <c r="E478" s="4"/>
+      <c r="E478" s="10"/>
+      <c r="J478" s="11"/>
+      <c r="L478" s="11"/>
     </row>
     <row r="479">
-      <c r="E479" s="4"/>
+      <c r="E479" s="10"/>
+      <c r="J479" s="11"/>
+      <c r="L479" s="11"/>
     </row>
     <row r="480">
-      <c r="E480" s="4"/>
+      <c r="E480" s="10"/>
+      <c r="J480" s="11"/>
+      <c r="L480" s="11"/>
     </row>
     <row r="481">
-      <c r="E481" s="4"/>
+      <c r="E481" s="10"/>
+      <c r="J481" s="11"/>
+      <c r="L481" s="11"/>
     </row>
     <row r="482">
-      <c r="E482" s="4"/>
+      <c r="E482" s="10"/>
+      <c r="J482" s="11"/>
+      <c r="L482" s="11"/>
     </row>
     <row r="483">
-      <c r="E483" s="4"/>
+      <c r="E483" s="10"/>
+      <c r="J483" s="11"/>
+      <c r="L483" s="11"/>
     </row>
     <row r="484">
-      <c r="E484" s="4"/>
+      <c r="E484" s="10"/>
+      <c r="J484" s="11"/>
+      <c r="L484" s="11"/>
     </row>
     <row r="485">
-      <c r="E485" s="4"/>
+      <c r="E485" s="10"/>
+      <c r="J485" s="11"/>
+      <c r="L485" s="11"/>
     </row>
     <row r="486">
-      <c r="E486" s="4"/>
+      <c r="E486" s="10"/>
+      <c r="J486" s="11"/>
+      <c r="L486" s="11"/>
     </row>
     <row r="487">
-      <c r="E487" s="4"/>
+      <c r="E487" s="10"/>
+      <c r="J487" s="11"/>
+      <c r="L487" s="11"/>
     </row>
     <row r="488">
-      <c r="E488" s="4"/>
+      <c r="E488" s="10"/>
+      <c r="J488" s="11"/>
+      <c r="L488" s="11"/>
     </row>
     <row r="489">
-      <c r="E489" s="4"/>
+      <c r="E489" s="10"/>
+      <c r="J489" s="11"/>
+      <c r="L489" s="11"/>
     </row>
     <row r="490">
-      <c r="E490" s="4"/>
+      <c r="E490" s="10"/>
+      <c r="J490" s="11"/>
+      <c r="L490" s="11"/>
     </row>
     <row r="491">
-      <c r="E491" s="4"/>
+      <c r="E491" s="10"/>
+      <c r="J491" s="11"/>
+      <c r="L491" s="11"/>
     </row>
     <row r="492">
-      <c r="E492" s="4"/>
+      <c r="E492" s="10"/>
+      <c r="J492" s="11"/>
+      <c r="L492" s="11"/>
     </row>
     <row r="493">
-      <c r="E493" s="4"/>
+      <c r="E493" s="10"/>
+      <c r="J493" s="11"/>
+      <c r="L493" s="11"/>
     </row>
     <row r="494">
-      <c r="E494" s="4"/>
+      <c r="E494" s="10"/>
+      <c r="J494" s="11"/>
+      <c r="L494" s="11"/>
     </row>
     <row r="495">
-      <c r="E495" s="4"/>
+      <c r="E495" s="10"/>
+      <c r="J495" s="11"/>
+      <c r="L495" s="11"/>
     </row>
     <row r="496">
-      <c r="E496" s="4"/>
+      <c r="E496" s="10"/>
+      <c r="J496" s="11"/>
+      <c r="L496" s="11"/>
     </row>
     <row r="497">
-      <c r="E497" s="4"/>
+      <c r="E497" s="10"/>
+      <c r="J497" s="11"/>
+      <c r="L497" s="11"/>
     </row>
     <row r="498">
-      <c r="E498" s="4"/>
+      <c r="E498" s="10"/>
+      <c r="J498" s="11"/>
+      <c r="L498" s="11"/>
     </row>
     <row r="499">
-      <c r="E499" s="4"/>
+      <c r="E499" s="10"/>
+      <c r="J499" s="11"/>
+      <c r="L499" s="11"/>
     </row>
     <row r="500">
-      <c r="E500" s="4"/>
+      <c r="E500" s="10"/>
+      <c r="J500" s="11"/>
+      <c r="L500" s="11"/>
     </row>
     <row r="501">
-      <c r="E501" s="4"/>
+      <c r="E501" s="10"/>
+      <c r="J501" s="11"/>
+      <c r="L501" s="11"/>
     </row>
     <row r="502">
-      <c r="E502" s="4"/>
+      <c r="E502" s="10"/>
+      <c r="J502" s="11"/>
+      <c r="L502" s="11"/>
     </row>
     <row r="503">
-      <c r="E503" s="4"/>
+      <c r="E503" s="10"/>
+      <c r="J503" s="11"/>
+      <c r="L503" s="11"/>
     </row>
     <row r="504">
-      <c r="E504" s="4"/>
+      <c r="E504" s="10"/>
+      <c r="J504" s="11"/>
+      <c r="L504" s="11"/>
     </row>
     <row r="505">
-      <c r="E505" s="4"/>
+      <c r="E505" s="10"/>
+      <c r="J505" s="11"/>
+      <c r="L505" s="11"/>
     </row>
     <row r="506">
-      <c r="E506" s="4"/>
+      <c r="E506" s="10"/>
+      <c r="J506" s="11"/>
+      <c r="L506" s="11"/>
     </row>
     <row r="507">
-      <c r="E507" s="4"/>
+      <c r="E507" s="10"/>
+      <c r="J507" s="11"/>
+      <c r="L507" s="11"/>
     </row>
     <row r="508">
-      <c r="E508" s="4"/>
+      <c r="E508" s="10"/>
+      <c r="J508" s="11"/>
+      <c r="L508" s="11"/>
     </row>
     <row r="509">
-      <c r="E509" s="4"/>
+      <c r="E509" s="10"/>
+      <c r="J509" s="11"/>
+      <c r="L509" s="11"/>
     </row>
     <row r="510">
-      <c r="E510" s="4"/>
+      <c r="E510" s="10"/>
+      <c r="J510" s="11"/>
+      <c r="L510" s="11"/>
     </row>
     <row r="511">
-      <c r="E511" s="4"/>
+      <c r="E511" s="10"/>
+      <c r="J511" s="11"/>
+      <c r="L511" s="11"/>
     </row>
     <row r="512">
-      <c r="E512" s="4"/>
+      <c r="E512" s="10"/>
+      <c r="J512" s="11"/>
+      <c r="L512" s="11"/>
     </row>
     <row r="513">
-      <c r="E513" s="4"/>
+      <c r="E513" s="10"/>
+      <c r="J513" s="11"/>
+      <c r="L513" s="11"/>
     </row>
     <row r="514">
-      <c r="E514" s="4"/>
+      <c r="E514" s="10"/>
+      <c r="J514" s="11"/>
+      <c r="L514" s="11"/>
     </row>
     <row r="515">
-      <c r="E515" s="4"/>
+      <c r="E515" s="10"/>
+      <c r="J515" s="11"/>
+      <c r="L515" s="11"/>
     </row>
     <row r="516">
-      <c r="E516" s="4"/>
+      <c r="E516" s="10"/>
+      <c r="J516" s="11"/>
+      <c r="L516" s="11"/>
     </row>
     <row r="517">
-      <c r="E517" s="4"/>
+      <c r="E517" s="10"/>
+      <c r="J517" s="11"/>
+      <c r="L517" s="11"/>
     </row>
     <row r="518">
-      <c r="E518" s="4"/>
+      <c r="E518" s="10"/>
+      <c r="J518" s="11"/>
+      <c r="L518" s="11"/>
     </row>
     <row r="519">
-      <c r="E519" s="4"/>
+      <c r="E519" s="10"/>
+      <c r="J519" s="11"/>
+      <c r="L519" s="11"/>
     </row>
     <row r="520">
-      <c r="E520" s="4"/>
+      <c r="E520" s="10"/>
+      <c r="J520" s="11"/>
+      <c r="L520" s="11"/>
     </row>
     <row r="521">
-      <c r="E521" s="4"/>
+      <c r="E521" s="10"/>
+      <c r="J521" s="11"/>
+      <c r="L521" s="11"/>
     </row>
     <row r="522">
-      <c r="E522" s="4"/>
+      <c r="E522" s="10"/>
+      <c r="J522" s="11"/>
+      <c r="L522" s="11"/>
     </row>
     <row r="523">
-      <c r="E523" s="4"/>
+      <c r="E523" s="10"/>
+      <c r="J523" s="11"/>
+      <c r="L523" s="11"/>
     </row>
     <row r="524">
-      <c r="E524" s="4"/>
+      <c r="E524" s="10"/>
+      <c r="J524" s="11"/>
+      <c r="L524" s="11"/>
     </row>
     <row r="525">
-      <c r="E525" s="4"/>
+      <c r="E525" s="10"/>
+      <c r="J525" s="11"/>
+      <c r="L525" s="11"/>
     </row>
     <row r="526">
-      <c r="E526" s="4"/>
+      <c r="E526" s="10"/>
+      <c r="J526" s="11"/>
+      <c r="L526" s="11"/>
     </row>
     <row r="527">
-      <c r="E527" s="4"/>
+      <c r="E527" s="10"/>
+      <c r="J527" s="11"/>
+      <c r="L527" s="11"/>
     </row>
     <row r="528">
-      <c r="E528" s="4"/>
+      <c r="E528" s="10"/>
+      <c r="J528" s="11"/>
+      <c r="L528" s="11"/>
     </row>
     <row r="529">
-      <c r="E529" s="4"/>
+      <c r="E529" s="10"/>
+      <c r="J529" s="11"/>
+      <c r="L529" s="11"/>
     </row>
     <row r="530">
-      <c r="E530" s="4"/>
+      <c r="E530" s="10"/>
+      <c r="J530" s="11"/>
+      <c r="L530" s="11"/>
     </row>
     <row r="531">
-      <c r="E531" s="4"/>
+      <c r="E531" s="10"/>
+      <c r="J531" s="11"/>
+      <c r="L531" s="11"/>
     </row>
     <row r="532">
-      <c r="E532" s="4"/>
+      <c r="E532" s="10"/>
+      <c r="J532" s="11"/>
+      <c r="L532" s="11"/>
     </row>
     <row r="533">
-      <c r="E533" s="4"/>
+      <c r="E533" s="10"/>
+      <c r="J533" s="11"/>
+      <c r="L533" s="11"/>
     </row>
     <row r="534">
-      <c r="E534" s="4"/>
+      <c r="E534" s="10"/>
+      <c r="J534" s="11"/>
+      <c r="L534" s="11"/>
     </row>
     <row r="535">
-      <c r="E535" s="4"/>
+      <c r="E535" s="10"/>
+      <c r="J535" s="11"/>
+      <c r="L535" s="11"/>
     </row>
     <row r="536">
-      <c r="E536" s="4"/>
+      <c r="E536" s="10"/>
+      <c r="J536" s="11"/>
+      <c r="L536" s="11"/>
     </row>
     <row r="537">
-      <c r="E537" s="4"/>
+      <c r="E537" s="10"/>
+      <c r="J537" s="11"/>
+      <c r="L537" s="11"/>
     </row>
     <row r="538">
-      <c r="E538" s="4"/>
+      <c r="E538" s="10"/>
+      <c r="J538" s="11"/>
+      <c r="L538" s="11"/>
     </row>
     <row r="539">
-      <c r="E539" s="4"/>
+      <c r="E539" s="10"/>
+      <c r="J539" s="11"/>
+      <c r="L539" s="11"/>
     </row>
     <row r="540">
-      <c r="E540" s="4"/>
+      <c r="E540" s="10"/>
+      <c r="J540" s="11"/>
+      <c r="L540" s="11"/>
     </row>
     <row r="541">
-      <c r="E541" s="4"/>
+      <c r="E541" s="10"/>
+      <c r="J541" s="11"/>
+      <c r="L541" s="11"/>
     </row>
     <row r="542">
-      <c r="E542" s="4"/>
+      <c r="E542" s="10"/>
+      <c r="J542" s="11"/>
+      <c r="L542" s="11"/>
     </row>
     <row r="543">
-      <c r="E543" s="4"/>
+      <c r="E543" s="10"/>
+      <c r="J543" s="11"/>
+      <c r="L543" s="11"/>
     </row>
     <row r="544">
-      <c r="E544" s="4"/>
+      <c r="E544" s="10"/>
+      <c r="J544" s="11"/>
+      <c r="L544" s="11"/>
     </row>
     <row r="545">
-      <c r="E545" s="4"/>
+      <c r="E545" s="10"/>
+      <c r="J545" s="11"/>
+      <c r="L545" s="11"/>
     </row>
     <row r="546">
-      <c r="E546" s="4"/>
+      <c r="E546" s="10"/>
+      <c r="J546" s="11"/>
+      <c r="L546" s="11"/>
     </row>
     <row r="547">
-      <c r="E547" s="4"/>
+      <c r="E547" s="10"/>
+      <c r="J547" s="11"/>
+      <c r="L547" s="11"/>
     </row>
     <row r="548">
-      <c r="E548" s="4"/>
+      <c r="E548" s="10"/>
+      <c r="J548" s="11"/>
+      <c r="L548" s="11"/>
     </row>
     <row r="549">
-      <c r="E549" s="4"/>
+      <c r="E549" s="10"/>
+      <c r="J549" s="11"/>
+      <c r="L549" s="11"/>
     </row>
     <row r="550">
-      <c r="E550" s="4"/>
+      <c r="E550" s="10"/>
+      <c r="J550" s="11"/>
+      <c r="L550" s="11"/>
     </row>
     <row r="551">
-      <c r="E551" s="4"/>
+      <c r="E551" s="10"/>
+      <c r="J551" s="11"/>
+      <c r="L551" s="11"/>
     </row>
     <row r="552">
-      <c r="E552" s="4"/>
+      <c r="E552" s="10"/>
+      <c r="J552" s="11"/>
+      <c r="L552" s="11"/>
     </row>
     <row r="553">
-      <c r="E553" s="4"/>
+      <c r="E553" s="10"/>
+      <c r="J553" s="11"/>
+      <c r="L553" s="11"/>
     </row>
     <row r="554">
-      <c r="E554" s="4"/>
+      <c r="E554" s="10"/>
+      <c r="J554" s="11"/>
+      <c r="L554" s="11"/>
     </row>
     <row r="555">
-      <c r="E555" s="4"/>
+      <c r="E555" s="10"/>
+      <c r="J555" s="11"/>
+      <c r="L555" s="11"/>
     </row>
     <row r="556">
-      <c r="E556" s="4"/>
+      <c r="E556" s="10"/>
+      <c r="J556" s="11"/>
+      <c r="L556" s="11"/>
     </row>
     <row r="557">
-      <c r="E557" s="4"/>
+      <c r="E557" s="10"/>
+      <c r="J557" s="11"/>
+      <c r="L557" s="11"/>
     </row>
     <row r="558">
-      <c r="E558" s="4"/>
+      <c r="E558" s="10"/>
+      <c r="J558" s="11"/>
+      <c r="L558" s="11"/>
     </row>
     <row r="559">
-      <c r="E559" s="4"/>
+      <c r="E559" s="10"/>
+      <c r="J559" s="11"/>
+      <c r="L559" s="11"/>
     </row>
     <row r="560">
-      <c r="E560" s="4"/>
+      <c r="E560" s="10"/>
+      <c r="J560" s="11"/>
+      <c r="L560" s="11"/>
     </row>
     <row r="561">
-      <c r="E561" s="4"/>
+      <c r="E561" s="10"/>
+      <c r="J561" s="11"/>
+      <c r="L561" s="11"/>
     </row>
     <row r="562">
-      <c r="E562" s="4"/>
+      <c r="E562" s="10"/>
+      <c r="J562" s="11"/>
+      <c r="L562" s="11"/>
     </row>
     <row r="563">
-      <c r="E563" s="4"/>
+      <c r="E563" s="10"/>
+      <c r="J563" s="11"/>
+      <c r="L563" s="11"/>
     </row>
     <row r="564">
-      <c r="E564" s="4"/>
+      <c r="E564" s="10"/>
+      <c r="J564" s="11"/>
+      <c r="L564" s="11"/>
     </row>
     <row r="565">
-      <c r="E565" s="4"/>
+      <c r="E565" s="10"/>
+      <c r="J565" s="11"/>
+      <c r="L565" s="11"/>
     </row>
     <row r="566">
-      <c r="E566" s="4"/>
+      <c r="E566" s="10"/>
+      <c r="J566" s="11"/>
+      <c r="L566" s="11"/>
     </row>
     <row r="567">
-      <c r="E567" s="4"/>
+      <c r="E567" s="10"/>
+      <c r="J567" s="11"/>
+      <c r="L567" s="11"/>
     </row>
     <row r="568">
-      <c r="E568" s="4"/>
+      <c r="E568" s="10"/>
+      <c r="J568" s="11"/>
+      <c r="L568" s="11"/>
     </row>
     <row r="569">
-      <c r="E569" s="4"/>
+      <c r="E569" s="10"/>
+      <c r="J569" s="11"/>
+      <c r="L569" s="11"/>
     </row>
     <row r="570">
-      <c r="E570" s="4"/>
+      <c r="E570" s="10"/>
+      <c r="J570" s="11"/>
+      <c r="L570" s="11"/>
     </row>
     <row r="571">
-      <c r="E571" s="4"/>
+      <c r="E571" s="10"/>
+      <c r="J571" s="11"/>
+      <c r="L571" s="11"/>
     </row>
     <row r="572">
-      <c r="E572" s="4"/>
+      <c r="E572" s="10"/>
+      <c r="J572" s="11"/>
+      <c r="L572" s="11"/>
     </row>
     <row r="573">
-      <c r="E573" s="4"/>
+      <c r="E573" s="10"/>
+      <c r="J573" s="11"/>
+      <c r="L573" s="11"/>
     </row>
     <row r="574">
-      <c r="E574" s="4"/>
+      <c r="E574" s="10"/>
+      <c r="J574" s="11"/>
+      <c r="L574" s="11"/>
     </row>
     <row r="575">
-      <c r="E575" s="4"/>
+      <c r="E575" s="10"/>
+      <c r="J575" s="11"/>
+      <c r="L575" s="11"/>
     </row>
     <row r="576">
-      <c r="E576" s="4"/>
+      <c r="E576" s="10"/>
+      <c r="J576" s="11"/>
+      <c r="L576" s="11"/>
     </row>
     <row r="577">
-      <c r="E577" s="4"/>
+      <c r="E577" s="10"/>
+      <c r="J577" s="11"/>
+      <c r="L577" s="11"/>
     </row>
     <row r="578">
-      <c r="E578" s="4"/>
+      <c r="E578" s="10"/>
+      <c r="J578" s="11"/>
+      <c r="L578" s="11"/>
     </row>
     <row r="579">
-      <c r="E579" s="4"/>
+      <c r="E579" s="10"/>
+      <c r="J579" s="11"/>
+      <c r="L579" s="11"/>
     </row>
     <row r="580">
-      <c r="E580" s="4"/>
+      <c r="E580" s="10"/>
+      <c r="J580" s="11"/>
+      <c r="L580" s="11"/>
     </row>
     <row r="581">
-      <c r="E581" s="4"/>
+      <c r="E581" s="10"/>
+      <c r="J581" s="11"/>
+      <c r="L581" s="11"/>
     </row>
     <row r="582">
-      <c r="E582" s="4"/>
+      <c r="E582" s="10"/>
+      <c r="J582" s="11"/>
+      <c r="L582" s="11"/>
     </row>
     <row r="583">
-      <c r="E583" s="4"/>
+      <c r="E583" s="10"/>
+      <c r="J583" s="11"/>
+      <c r="L583" s="11"/>
     </row>
     <row r="584">
-      <c r="E584" s="4"/>
+      <c r="E584" s="10"/>
+      <c r="J584" s="11"/>
+      <c r="L584" s="11"/>
     </row>
     <row r="585">
-      <c r="E585" s="4"/>
+      <c r="E585" s="10"/>
+      <c r="J585" s="11"/>
+      <c r="L585" s="11"/>
     </row>
     <row r="586">
-      <c r="E586" s="4"/>
+      <c r="E586" s="10"/>
+      <c r="J586" s="11"/>
+      <c r="L586" s="11"/>
     </row>
     <row r="587">
-      <c r="E587" s="4"/>
+      <c r="E587" s="10"/>
+      <c r="J587" s="11"/>
+      <c r="L587" s="11"/>
     </row>
     <row r="588">
-      <c r="E588" s="4"/>
+      <c r="E588" s="10"/>
+      <c r="J588" s="11"/>
+      <c r="L588" s="11"/>
     </row>
     <row r="589">
-      <c r="E589" s="4"/>
+      <c r="E589" s="10"/>
+      <c r="J589" s="11"/>
+      <c r="L589" s="11"/>
     </row>
     <row r="590">
-      <c r="E590" s="4"/>
+      <c r="E590" s="10"/>
+      <c r="J590" s="11"/>
+      <c r="L590" s="11"/>
     </row>
     <row r="591">
-      <c r="E591" s="4"/>
+      <c r="E591" s="10"/>
+      <c r="J591" s="11"/>
+      <c r="L591" s="11"/>
     </row>
     <row r="592">
-      <c r="E592" s="4"/>
+      <c r="E592" s="10"/>
+      <c r="J592" s="11"/>
+      <c r="L592" s="11"/>
     </row>
     <row r="593">
-      <c r="E593" s="4"/>
+      <c r="E593" s="10"/>
+      <c r="J593" s="11"/>
+      <c r="L593" s="11"/>
     </row>
     <row r="594">
-      <c r="E594" s="4"/>
+      <c r="E594" s="10"/>
+      <c r="J594" s="11"/>
+      <c r="L594" s="11"/>
     </row>
     <row r="595">
-      <c r="E595" s="4"/>
+      <c r="E595" s="10"/>
+      <c r="J595" s="11"/>
+      <c r="L595" s="11"/>
     </row>
     <row r="596">
-      <c r="E596" s="4"/>
+      <c r="E596" s="10"/>
+      <c r="J596" s="11"/>
+      <c r="L596" s="11"/>
     </row>
     <row r="597">
-      <c r="E597" s="4"/>
+      <c r="E597" s="10"/>
+      <c r="J597" s="11"/>
+      <c r="L597" s="11"/>
     </row>
     <row r="598">
-      <c r="E598" s="4"/>
+      <c r="E598" s="10"/>
+      <c r="J598" s="11"/>
+      <c r="L598" s="11"/>
     </row>
     <row r="599">
-      <c r="E599" s="4"/>
+      <c r="E599" s="10"/>
+      <c r="J599" s="11"/>
+      <c r="L599" s="11"/>
     </row>
     <row r="600">
-      <c r="E600" s="4"/>
+      <c r="E600" s="10"/>
+      <c r="J600" s="11"/>
+      <c r="L600" s="11"/>
     </row>
     <row r="601">
-      <c r="E601" s="4"/>
+      <c r="E601" s="10"/>
+      <c r="J601" s="11"/>
+      <c r="L601" s="11"/>
     </row>
     <row r="602">
-      <c r="E602" s="4"/>
+      <c r="E602" s="10"/>
+      <c r="J602" s="11"/>
+      <c r="L602" s="11"/>
     </row>
     <row r="603">
-      <c r="E603" s="4"/>
+      <c r="E603" s="10"/>
+      <c r="J603" s="11"/>
+      <c r="L603" s="11"/>
     </row>
     <row r="604">
-      <c r="E604" s="4"/>
+      <c r="E604" s="10"/>
+      <c r="J604" s="11"/>
+      <c r="L604" s="11"/>
     </row>
     <row r="605">
-      <c r="E605" s="4"/>
+      <c r="E605" s="10"/>
+      <c r="J605" s="11"/>
+      <c r="L605" s="11"/>
     </row>
     <row r="606">
-      <c r="E606" s="4"/>
+      <c r="E606" s="10"/>
+      <c r="J606" s="11"/>
+      <c r="L606" s="11"/>
     </row>
     <row r="607">
-      <c r="E607" s="4"/>
+      <c r="E607" s="10"/>
+      <c r="J607" s="11"/>
+      <c r="L607" s="11"/>
     </row>
     <row r="608">
-      <c r="E608" s="4"/>
+      <c r="E608" s="10"/>
+      <c r="J608" s="11"/>
+      <c r="L608" s="11"/>
     </row>
     <row r="609">
-      <c r="E609" s="4"/>
+      <c r="E609" s="10"/>
+      <c r="J609" s="11"/>
+      <c r="L609" s="11"/>
     </row>
     <row r="610">
-      <c r="E610" s="4"/>
+      <c r="E610" s="10"/>
+      <c r="J610" s="11"/>
+      <c r="L610" s="11"/>
     </row>
     <row r="611">
-      <c r="E611" s="4"/>
+      <c r="E611" s="10"/>
+      <c r="J611" s="11"/>
+      <c r="L611" s="11"/>
     </row>
     <row r="612">
-      <c r="E612" s="4"/>
+      <c r="E612" s="10"/>
+      <c r="J612" s="11"/>
+      <c r="L612" s="11"/>
     </row>
     <row r="613">
-      <c r="E613" s="4"/>
+      <c r="E613" s="10"/>
+      <c r="J613" s="11"/>
+      <c r="L613" s="11"/>
     </row>
     <row r="614">
-      <c r="E614" s="4"/>
+      <c r="E614" s="10"/>
+      <c r="J614" s="11"/>
+      <c r="L614" s="11"/>
     </row>
     <row r="615">
-      <c r="E615" s="4"/>
+      <c r="E615" s="10"/>
+      <c r="J615" s="11"/>
+      <c r="L615" s="11"/>
     </row>
     <row r="616">
-      <c r="E616" s="4"/>
+      <c r="E616" s="10"/>
+      <c r="J616" s="11"/>
+      <c r="L616" s="11"/>
     </row>
     <row r="617">
-      <c r="E617" s="4"/>
+      <c r="E617" s="10"/>
+      <c r="J617" s="11"/>
+      <c r="L617" s="11"/>
     </row>
     <row r="618">
-      <c r="E618" s="4"/>
+      <c r="E618" s="10"/>
+      <c r="J618" s="11"/>
+      <c r="L618" s="11"/>
     </row>
     <row r="619">
-      <c r="E619" s="4"/>
+      <c r="E619" s="10"/>
+      <c r="J619" s="11"/>
+      <c r="L619" s="11"/>
     </row>
     <row r="620">
-      <c r="E620" s="4"/>
+      <c r="E620" s="10"/>
+      <c r="J620" s="11"/>
+      <c r="L620" s="11"/>
     </row>
     <row r="621">
-      <c r="E621" s="4"/>
+      <c r="E621" s="10"/>
+      <c r="J621" s="11"/>
+      <c r="L621" s="11"/>
     </row>
     <row r="622">
-      <c r="E622" s="4"/>
+      <c r="E622" s="10"/>
+      <c r="J622" s="11"/>
+      <c r="L622" s="11"/>
     </row>
     <row r="623">
-      <c r="E623" s="4"/>
+      <c r="E623" s="10"/>
+      <c r="J623" s="11"/>
+      <c r="L623" s="11"/>
     </row>
     <row r="624">
-      <c r="E624" s="4"/>
+      <c r="E624" s="10"/>
+      <c r="J624" s="11"/>
+      <c r="L624" s="11"/>
     </row>
     <row r="625">
-      <c r="E625" s="4"/>
+      <c r="E625" s="10"/>
+      <c r="J625" s="11"/>
+      <c r="L625" s="11"/>
     </row>
     <row r="626">
-      <c r="E626" s="4"/>
+      <c r="E626" s="10"/>
+      <c r="J626" s="11"/>
+      <c r="L626" s="11"/>
     </row>
     <row r="627">
-      <c r="E627" s="4"/>
+      <c r="E627" s="10"/>
+      <c r="J627" s="11"/>
+      <c r="L627" s="11"/>
     </row>
     <row r="628">
-      <c r="E628" s="4"/>
+      <c r="E628" s="10"/>
+      <c r="J628" s="11"/>
+      <c r="L628" s="11"/>
     </row>
     <row r="629">
-      <c r="E629" s="4"/>
+      <c r="E629" s="10"/>
+      <c r="J629" s="11"/>
+      <c r="L629" s="11"/>
     </row>
     <row r="630">
-      <c r="E630" s="4"/>
+      <c r="E630" s="10"/>
+      <c r="J630" s="11"/>
+      <c r="L630" s="11"/>
     </row>
     <row r="631">
-      <c r="E631" s="4"/>
+      <c r="E631" s="10"/>
+      <c r="J631" s="11"/>
+      <c r="L631" s="11"/>
     </row>
     <row r="632">
-      <c r="E632" s="4"/>
+      <c r="E632" s="10"/>
+      <c r="J632" s="11"/>
+      <c r="L632" s="11"/>
     </row>
     <row r="633">
-      <c r="E633" s="4"/>
+      <c r="E633" s="10"/>
+      <c r="J633" s="11"/>
+      <c r="L633" s="11"/>
     </row>
     <row r="634">
-      <c r="E634" s="4"/>
+      <c r="E634" s="10"/>
+      <c r="J634" s="11"/>
+      <c r="L634" s="11"/>
     </row>
     <row r="635">
-      <c r="E635" s="4"/>
+      <c r="E635" s="10"/>
+      <c r="J635" s="11"/>
+      <c r="L635" s="11"/>
     </row>
     <row r="636">
-      <c r="E636" s="4"/>
+      <c r="E636" s="10"/>
+      <c r="J636" s="11"/>
+      <c r="L636" s="11"/>
     </row>
     <row r="637">
-      <c r="E637" s="4"/>
+      <c r="E637" s="10"/>
+      <c r="J637" s="11"/>
+      <c r="L637" s="11"/>
     </row>
     <row r="638">
-      <c r="E638" s="4"/>
+      <c r="E638" s="10"/>
+      <c r="J638" s="11"/>
+      <c r="L638" s="11"/>
     </row>
     <row r="639">
-      <c r="E639" s="4"/>
+      <c r="E639" s="10"/>
+      <c r="J639" s="11"/>
+      <c r="L639" s="11"/>
     </row>
     <row r="640">
-      <c r="E640" s="4"/>
+      <c r="E640" s="10"/>
+      <c r="J640" s="11"/>
+      <c r="L640" s="11"/>
     </row>
     <row r="641">
-      <c r="E641" s="4"/>
+      <c r="E641" s="10"/>
+      <c r="J641" s="11"/>
+      <c r="L641" s="11"/>
     </row>
     <row r="642">
-      <c r="E642" s="4"/>
+      <c r="E642" s="10"/>
+      <c r="J642" s="11"/>
+      <c r="L642" s="11"/>
     </row>
     <row r="643">
-      <c r="E643" s="4"/>
+      <c r="E643" s="10"/>
+      <c r="J643" s="11"/>
+      <c r="L643" s="11"/>
     </row>
     <row r="644">
-      <c r="E644" s="4"/>
+      <c r="E644" s="10"/>
+      <c r="J644" s="11"/>
+      <c r="L644" s="11"/>
     </row>
     <row r="645">
-      <c r="E645" s="4"/>
+      <c r="E645" s="10"/>
+      <c r="J645" s="11"/>
+      <c r="L645" s="11"/>
     </row>
     <row r="646">
-      <c r="E646" s="4"/>
+      <c r="E646" s="10"/>
+      <c r="J646" s="11"/>
+      <c r="L646" s="11"/>
     </row>
     <row r="647">
-      <c r="E647" s="4"/>
+      <c r="E647" s="10"/>
+      <c r="J647" s="11"/>
+      <c r="L647" s="11"/>
     </row>
     <row r="648">
-      <c r="E648" s="4"/>
+      <c r="E648" s="10"/>
+      <c r="J648" s="11"/>
+      <c r="L648" s="11"/>
     </row>
     <row r="649">
-      <c r="E649" s="4"/>
+      <c r="E649" s="10"/>
+      <c r="J649" s="11"/>
+      <c r="L649" s="11"/>
     </row>
     <row r="650">
-      <c r="E650" s="4"/>
+      <c r="E650" s="10"/>
+      <c r="J650" s="11"/>
+      <c r="L650" s="11"/>
     </row>
     <row r="651">
-      <c r="E651" s="4"/>
+      <c r="E651" s="10"/>
+      <c r="J651" s="11"/>
+      <c r="L651" s="11"/>
     </row>
     <row r="652">
-      <c r="E652" s="4"/>
+      <c r="E652" s="10"/>
+      <c r="J652" s="11"/>
+      <c r="L652" s="11"/>
     </row>
     <row r="653">
-      <c r="E653" s="4"/>
+      <c r="E653" s="10"/>
+      <c r="J653" s="11"/>
+      <c r="L653" s="11"/>
     </row>
     <row r="654">
-      <c r="E654" s="4"/>
+      <c r="E654" s="10"/>
+      <c r="J654" s="11"/>
+      <c r="L654" s="11"/>
     </row>
     <row r="655">
-      <c r="E655" s="4"/>
+      <c r="E655" s="10"/>
+      <c r="J655" s="11"/>
+      <c r="L655" s="11"/>
     </row>
     <row r="656">
-      <c r="E656" s="4"/>
+      <c r="E656" s="10"/>
+      <c r="J656" s="11"/>
+      <c r="L656" s="11"/>
     </row>
     <row r="657">
-      <c r="E657" s="4"/>
+      <c r="E657" s="10"/>
+      <c r="J657" s="11"/>
+      <c r="L657" s="11"/>
     </row>
     <row r="658">
-      <c r="E658" s="4"/>
+      <c r="E658" s="10"/>
+      <c r="J658" s="11"/>
+      <c r="L658" s="11"/>
     </row>
     <row r="659">
-      <c r="E659" s="4"/>
+      <c r="E659" s="10"/>
+      <c r="J659" s="11"/>
+      <c r="L659" s="11"/>
     </row>
     <row r="660">
-      <c r="E660" s="4"/>
+      <c r="E660" s="10"/>
+      <c r="J660" s="11"/>
+      <c r="L660" s="11"/>
     </row>
     <row r="661">
-      <c r="E661" s="4"/>
+      <c r="E661" s="10"/>
+      <c r="J661" s="11"/>
+      <c r="L661" s="11"/>
     </row>
     <row r="662">
-      <c r="E662" s="4"/>
+      <c r="E662" s="10"/>
+      <c r="J662" s="11"/>
+      <c r="L662" s="11"/>
     </row>
     <row r="663">
-      <c r="E663" s="4"/>
+      <c r="E663" s="10"/>
+      <c r="J663" s="11"/>
+      <c r="L663" s="11"/>
     </row>
     <row r="664">
-      <c r="E664" s="4"/>
+      <c r="E664" s="10"/>
+      <c r="J664" s="11"/>
+      <c r="L664" s="11"/>
     </row>
     <row r="665">
-      <c r="E665" s="4"/>
+      <c r="E665" s="10"/>
+      <c r="J665" s="11"/>
+      <c r="L665" s="11"/>
     </row>
     <row r="666">
-      <c r="E666" s="4"/>
+      <c r="E666" s="10"/>
+      <c r="J666" s="11"/>
+      <c r="L666" s="11"/>
     </row>
     <row r="667">
-      <c r="E667" s="4"/>
+      <c r="E667" s="10"/>
+      <c r="J667" s="11"/>
+      <c r="L667" s="11"/>
     </row>
     <row r="668">
-      <c r="E668" s="4"/>
+      <c r="E668" s="10"/>
+      <c r="J668" s="11"/>
+      <c r="L668" s="11"/>
     </row>
     <row r="669">
-      <c r="E669" s="4"/>
+      <c r="E669" s="10"/>
+      <c r="J669" s="11"/>
+      <c r="L669" s="11"/>
     </row>
     <row r="670">
-      <c r="E670" s="4"/>
+      <c r="E670" s="10"/>
+      <c r="J670" s="11"/>
+      <c r="L670" s="11"/>
     </row>
     <row r="671">
-      <c r="E671" s="4"/>
+      <c r="E671" s="10"/>
+      <c r="J671" s="11"/>
+      <c r="L671" s="11"/>
     </row>
     <row r="672">
-      <c r="E672" s="4"/>
+      <c r="E672" s="10"/>
+      <c r="J672" s="11"/>
+      <c r="L672" s="11"/>
     </row>
     <row r="673">
-      <c r="E673" s="4"/>
+      <c r="E673" s="10"/>
+      <c r="J673" s="11"/>
+      <c r="L673" s="11"/>
     </row>
     <row r="674">
-      <c r="E674" s="4"/>
+      <c r="E674" s="10"/>
+      <c r="J674" s="11"/>
+      <c r="L674" s="11"/>
     </row>
     <row r="675">
-      <c r="E675" s="4"/>
+      <c r="E675" s="10"/>
+      <c r="J675" s="11"/>
+      <c r="L675" s="11"/>
     </row>
     <row r="676">
-      <c r="E676" s="4"/>
+      <c r="E676" s="10"/>
+      <c r="J676" s="11"/>
+      <c r="L676" s="11"/>
     </row>
     <row r="677">
-      <c r="E677" s="4"/>
+      <c r="E677" s="10"/>
+      <c r="J677" s="11"/>
+      <c r="L677" s="11"/>
     </row>
     <row r="678">
-      <c r="E678" s="4"/>
+      <c r="E678" s="10"/>
+      <c r="J678" s="11"/>
+      <c r="L678" s="11"/>
     </row>
     <row r="679">
-      <c r="E679" s="4"/>
+      <c r="E679" s="10"/>
+      <c r="J679" s="11"/>
+      <c r="L679" s="11"/>
     </row>
     <row r="680">
-      <c r="E680" s="4"/>
+      <c r="E680" s="10"/>
+      <c r="J680" s="11"/>
+      <c r="L680" s="11"/>
     </row>
     <row r="681">
-      <c r="E681" s="4"/>
+      <c r="E681" s="10"/>
+      <c r="J681" s="11"/>
+      <c r="L681" s="11"/>
     </row>
     <row r="682">
-      <c r="E682" s="4"/>
+      <c r="E682" s="10"/>
+      <c r="J682" s="11"/>
+      <c r="L682" s="11"/>
     </row>
     <row r="683">
-      <c r="E683" s="4"/>
+      <c r="E683" s="10"/>
+      <c r="J683" s="11"/>
+      <c r="L683" s="11"/>
     </row>
     <row r="684">
-      <c r="E684" s="4"/>
+      <c r="E684" s="10"/>
+      <c r="J684" s="11"/>
+      <c r="L684" s="11"/>
     </row>
     <row r="685">
-      <c r="E685" s="4"/>
+      <c r="E685" s="10"/>
+      <c r="J685" s="11"/>
+      <c r="L685" s="11"/>
     </row>
     <row r="686">
-      <c r="E686" s="4"/>
+      <c r="E686" s="10"/>
+      <c r="J686" s="11"/>
+      <c r="L686" s="11"/>
     </row>
     <row r="687">
-      <c r="E687" s="4"/>
+      <c r="E687" s="10"/>
+      <c r="J687" s="11"/>
+      <c r="L687" s="11"/>
     </row>
     <row r="688">
-      <c r="E688" s="4"/>
+      <c r="E688" s="10"/>
+      <c r="J688" s="11"/>
+      <c r="L688" s="11"/>
     </row>
     <row r="689">
-      <c r="E689" s="4"/>
+      <c r="E689" s="10"/>
+      <c r="J689" s="11"/>
+      <c r="L689" s="11"/>
     </row>
     <row r="690">
-      <c r="E690" s="4"/>
+      <c r="E690" s="10"/>
+      <c r="J690" s="11"/>
+      <c r="L690" s="11"/>
     </row>
     <row r="691">
-      <c r="E691" s="4"/>
+      <c r="E691" s="10"/>
+      <c r="J691" s="11"/>
+      <c r="L691" s="11"/>
     </row>
     <row r="692">
-      <c r="E692" s="4"/>
+      <c r="E692" s="10"/>
+      <c r="J692" s="11"/>
+      <c r="L692" s="11"/>
     </row>
     <row r="693">
-      <c r="E693" s="4"/>
+      <c r="E693" s="10"/>
+      <c r="J693" s="11"/>
+      <c r="L693" s="11"/>
     </row>
     <row r="694">
-      <c r="E694" s="4"/>
+      <c r="E694" s="10"/>
+      <c r="J694" s="11"/>
+      <c r="L694" s="11"/>
     </row>
     <row r="695">
-      <c r="E695" s="4"/>
+      <c r="E695" s="10"/>
+      <c r="J695" s="11"/>
+      <c r="L695" s="11"/>
     </row>
     <row r="696">
-      <c r="E696" s="4"/>
+      <c r="E696" s="10"/>
+      <c r="J696" s="11"/>
+      <c r="L696" s="11"/>
     </row>
     <row r="697">
-      <c r="E697" s="4"/>
+      <c r="E697" s="10"/>
+      <c r="J697" s="11"/>
+      <c r="L697" s="11"/>
     </row>
     <row r="698">
-      <c r="E698" s="4"/>
+      <c r="E698" s="10"/>
+      <c r="J698" s="11"/>
+      <c r="L698" s="11"/>
     </row>
     <row r="699">
-      <c r="E699" s="4"/>
+      <c r="E699" s="10"/>
+      <c r="J699" s="11"/>
+      <c r="L699" s="11"/>
     </row>
     <row r="700">
-      <c r="E700" s="4"/>
+      <c r="E700" s="10"/>
+      <c r="J700" s="11"/>
+      <c r="L700" s="11"/>
     </row>
     <row r="701">
-      <c r="E701" s="4"/>
+      <c r="E701" s="10"/>
+      <c r="J701" s="11"/>
+      <c r="L701" s="11"/>
     </row>
     <row r="702">
-      <c r="E702" s="4"/>
+      <c r="E702" s="10"/>
+      <c r="J702" s="11"/>
+      <c r="L702" s="11"/>
     </row>
     <row r="703">
-      <c r="E703" s="4"/>
+      <c r="E703" s="10"/>
+      <c r="J703" s="11"/>
+      <c r="L703" s="11"/>
     </row>
     <row r="704">
-      <c r="E704" s="4"/>
+      <c r="E704" s="10"/>
+      <c r="J704" s="11"/>
+      <c r="L704" s="11"/>
     </row>
     <row r="705">
-      <c r="E705" s="4"/>
+      <c r="E705" s="10"/>
+      <c r="J705" s="11"/>
+      <c r="L705" s="11"/>
     </row>
     <row r="706">
-      <c r="E706" s="4"/>
+      <c r="E706" s="10"/>
+      <c r="J706" s="11"/>
+      <c r="L706" s="11"/>
     </row>
     <row r="707">
-      <c r="E707" s="4"/>
+      <c r="E707" s="10"/>
+      <c r="J707" s="11"/>
+      <c r="L707" s="11"/>
     </row>
     <row r="708">
-      <c r="E708" s="4"/>
+      <c r="E708" s="10"/>
+      <c r="J708" s="11"/>
+      <c r="L708" s="11"/>
     </row>
     <row r="709">
-      <c r="E709" s="4"/>
+      <c r="E709" s="10"/>
+      <c r="J709" s="11"/>
+      <c r="L709" s="11"/>
     </row>
     <row r="710">
-      <c r="E710" s="4"/>
+      <c r="E710" s="10"/>
+      <c r="J710" s="11"/>
+      <c r="L710" s="11"/>
     </row>
     <row r="711">
-      <c r="E711" s="4"/>
+      <c r="E711" s="10"/>
+      <c r="J711" s="11"/>
+      <c r="L711" s="11"/>
     </row>
     <row r="712">
-      <c r="E712" s="4"/>
+      <c r="E712" s="10"/>
+      <c r="J712" s="11"/>
+      <c r="L712" s="11"/>
     </row>
     <row r="713">
-      <c r="E713" s="4"/>
+      <c r="E713" s="10"/>
+      <c r="J713" s="11"/>
+      <c r="L713" s="11"/>
     </row>
     <row r="714">
-      <c r="E714" s="4"/>
+      <c r="E714" s="10"/>
+      <c r="J714" s="11"/>
+      <c r="L714" s="11"/>
     </row>
     <row r="715">
-      <c r="E715" s="4"/>
+      <c r="E715" s="10"/>
+      <c r="J715" s="11"/>
+      <c r="L715" s="11"/>
     </row>
     <row r="716">
-      <c r="E716" s="4"/>
+      <c r="E716" s="10"/>
+      <c r="J716" s="11"/>
+      <c r="L716" s="11"/>
     </row>
     <row r="717">
-      <c r="E717" s="4"/>
+      <c r="E717" s="10"/>
+      <c r="J717" s="11"/>
+      <c r="L717" s="11"/>
     </row>
     <row r="718">
-      <c r="E718" s="4"/>
+      <c r="E718" s="10"/>
+      <c r="J718" s="11"/>
+      <c r="L718" s="11"/>
     </row>
     <row r="719">
-      <c r="E719" s="4"/>
+      <c r="E719" s="10"/>
+      <c r="J719" s="11"/>
+      <c r="L719" s="11"/>
     </row>
     <row r="720">
-      <c r="E720" s="4"/>
+      <c r="E720" s="10"/>
+      <c r="J720" s="11"/>
+      <c r="L720" s="11"/>
     </row>
     <row r="721">
-      <c r="E721" s="4"/>
+      <c r="E721" s="10"/>
+      <c r="J721" s="11"/>
+      <c r="L721" s="11"/>
     </row>
     <row r="722">
-      <c r="E722" s="4"/>
+      <c r="E722" s="10"/>
+      <c r="J722" s="11"/>
+      <c r="L722" s="11"/>
     </row>
     <row r="723">
-      <c r="E723" s="4"/>
+      <c r="E723" s="10"/>
+      <c r="J723" s="11"/>
+      <c r="L723" s="11"/>
     </row>
     <row r="724">
-      <c r="E724" s="4"/>
+      <c r="E724" s="10"/>
+      <c r="J724" s="11"/>
+      <c r="L724" s="11"/>
     </row>
     <row r="725">
-      <c r="E725" s="4"/>
+      <c r="E725" s="10"/>
+      <c r="J725" s="11"/>
+      <c r="L725" s="11"/>
     </row>
     <row r="726">
-      <c r="E726" s="4"/>
+      <c r="E726" s="10"/>
+      <c r="J726" s="11"/>
+      <c r="L726" s="11"/>
     </row>
     <row r="727">
-      <c r="E727" s="4"/>
+      <c r="E727" s="10"/>
+      <c r="J727" s="11"/>
+      <c r="L727" s="11"/>
     </row>
     <row r="728">
-      <c r="E728" s="4"/>
+      <c r="E728" s="10"/>
+      <c r="J728" s="11"/>
+      <c r="L728" s="11"/>
     </row>
     <row r="729">
-      <c r="E729" s="4"/>
+      <c r="E729" s="10"/>
+      <c r="J729" s="11"/>
+      <c r="L729" s="11"/>
     </row>
     <row r="730">
-      <c r="E730" s="4"/>
+      <c r="E730" s="10"/>
+      <c r="J730" s="11"/>
+      <c r="L730" s="11"/>
     </row>
     <row r="731">
-      <c r="E731" s="4"/>
+      <c r="E731" s="10"/>
+      <c r="J731" s="11"/>
+      <c r="L731" s="11"/>
     </row>
     <row r="732">
-      <c r="E732" s="4"/>
+      <c r="E732" s="10"/>
+      <c r="J732" s="11"/>
+      <c r="L732" s="11"/>
     </row>
     <row r="733">
-      <c r="E733" s="4"/>
+      <c r="E733" s="10"/>
+      <c r="J733" s="11"/>
+      <c r="L733" s="11"/>
     </row>
     <row r="734">
-      <c r="E734" s="4"/>
+      <c r="E734" s="10"/>
+      <c r="J734" s="11"/>
+      <c r="L734" s="11"/>
     </row>
     <row r="735">
-      <c r="E735" s="4"/>
+      <c r="E735" s="10"/>
+      <c r="J735" s="11"/>
+      <c r="L735" s="11"/>
     </row>
     <row r="736">
-      <c r="E736" s="4"/>
+      <c r="E736" s="10"/>
+      <c r="J736" s="11"/>
+      <c r="L736" s="11"/>
     </row>
     <row r="737">
-      <c r="E737" s="4"/>
+      <c r="E737" s="10"/>
+      <c r="J737" s="11"/>
+      <c r="L737" s="11"/>
     </row>
     <row r="738">
-      <c r="E738" s="4"/>
+      <c r="E738" s="10"/>
+      <c r="J738" s="11"/>
+      <c r="L738" s="11"/>
     </row>
     <row r="739">
-      <c r="E739" s="4"/>
+      <c r="E739" s="10"/>
+      <c r="J739" s="11"/>
+      <c r="L739" s="11"/>
     </row>
     <row r="740">
-      <c r="E740" s="4"/>
+      <c r="E740" s="10"/>
+      <c r="J740" s="11"/>
+      <c r="L740" s="11"/>
     </row>
     <row r="741">
-      <c r="E741" s="4"/>
+      <c r="E741" s="10"/>
+      <c r="J741" s="11"/>
+      <c r="L741" s="11"/>
     </row>
     <row r="742">
-      <c r="E742" s="4"/>
+      <c r="E742" s="10"/>
+      <c r="J742" s="11"/>
+      <c r="L742" s="11"/>
     </row>
     <row r="743">
-      <c r="E743" s="4"/>
+      <c r="E743" s="10"/>
+      <c r="J743" s="11"/>
+      <c r="L743" s="11"/>
     </row>
     <row r="744">
-      <c r="E744" s="4"/>
+      <c r="E744" s="10"/>
+      <c r="J744" s="11"/>
+      <c r="L744" s="11"/>
     </row>
     <row r="745">
-      <c r="E745" s="4"/>
+      <c r="E745" s="10"/>
+      <c r="J745" s="11"/>
+      <c r="L745" s="11"/>
     </row>
     <row r="746">
-      <c r="E746" s="4"/>
+      <c r="E746" s="10"/>
+      <c r="J746" s="11"/>
+      <c r="L746" s="11"/>
     </row>
     <row r="747">
-      <c r="E747" s="4"/>
+      <c r="E747" s="10"/>
+      <c r="J747" s="11"/>
+      <c r="L747" s="11"/>
     </row>
     <row r="748">
-      <c r="E748" s="4"/>
+      <c r="E748" s="10"/>
+      <c r="J748" s="11"/>
+      <c r="L748" s="11"/>
     </row>
     <row r="749">
-      <c r="E749" s="4"/>
+      <c r="E749" s="10"/>
+      <c r="J749" s="11"/>
+      <c r="L749" s="11"/>
     </row>
     <row r="750">
-      <c r="E750" s="4"/>
+      <c r="E750" s="10"/>
+      <c r="J750" s="11"/>
+      <c r="L750" s="11"/>
     </row>
     <row r="751">
-      <c r="E751" s="4"/>
+      <c r="E751" s="10"/>
+      <c r="J751" s="11"/>
+      <c r="L751" s="11"/>
     </row>
     <row r="752">
-      <c r="E752" s="4"/>
+      <c r="E752" s="10"/>
+      <c r="J752" s="11"/>
+      <c r="L752" s="11"/>
     </row>
     <row r="753">
-      <c r="E753" s="4"/>
+      <c r="E753" s="10"/>
+      <c r="J753" s="11"/>
+      <c r="L753" s="11"/>
     </row>
     <row r="754">
-      <c r="E754" s="4"/>
+      <c r="E754" s="10"/>
+      <c r="J754" s="11"/>
+      <c r="L754" s="11"/>
     </row>
     <row r="755">
-      <c r="E755" s="4"/>
+      <c r="E755" s="10"/>
+      <c r="J755" s="11"/>
+      <c r="L755" s="11"/>
     </row>
     <row r="756">
-      <c r="E756" s="4"/>
+      <c r="E756" s="10"/>
+      <c r="J756" s="11"/>
+      <c r="L756" s="11"/>
     </row>
     <row r="757">
-      <c r="E757" s="4"/>
+      <c r="E757" s="10"/>
+      <c r="J757" s="11"/>
+      <c r="L757" s="11"/>
     </row>
     <row r="758">
-      <c r="E758" s="4"/>
+      <c r="E758" s="10"/>
+      <c r="J758" s="11"/>
+      <c r="L758" s="11"/>
     </row>
     <row r="759">
-      <c r="E759" s="4"/>
+      <c r="E759" s="10"/>
+      <c r="J759" s="11"/>
+      <c r="L759" s="11"/>
     </row>
     <row r="760">
-      <c r="E760" s="4"/>
+      <c r="E760" s="10"/>
+      <c r="J760" s="11"/>
+      <c r="L760" s="11"/>
     </row>
     <row r="761">
-      <c r="E761" s="4"/>
+      <c r="E761" s="10"/>
+      <c r="J761" s="11"/>
+      <c r="L761" s="11"/>
     </row>
     <row r="762">
-      <c r="E762" s="4"/>
+      <c r="E762" s="10"/>
+      <c r="J762" s="11"/>
+      <c r="L762" s="11"/>
     </row>
     <row r="763">
-      <c r="E763" s="4"/>
+      <c r="E763" s="10"/>
+      <c r="J763" s="11"/>
+      <c r="L763" s="11"/>
     </row>
     <row r="764">
-      <c r="E764" s="4"/>
+      <c r="E764" s="10"/>
+      <c r="J764" s="11"/>
+      <c r="L764" s="11"/>
     </row>
     <row r="765">
-      <c r="E765" s="4"/>
+      <c r="E765" s="10"/>
+      <c r="J765" s="11"/>
+      <c r="L765" s="11"/>
     </row>
     <row r="766">
-      <c r="E766" s="4"/>
+      <c r="E766" s="10"/>
+      <c r="J766" s="11"/>
+      <c r="L766" s="11"/>
     </row>
     <row r="767">
-      <c r="E767" s="4"/>
+      <c r="E767" s="10"/>
+      <c r="J767" s="11"/>
+      <c r="L767" s="11"/>
     </row>
     <row r="768">
-      <c r="E768" s="4"/>
+      <c r="E768" s="10"/>
+      <c r="J768" s="11"/>
+      <c r="L768" s="11"/>
     </row>
     <row r="769">
-      <c r="E769" s="4"/>
+      <c r="E769" s="10"/>
+      <c r="J769" s="11"/>
+      <c r="L769" s="11"/>
     </row>
     <row r="770">
-      <c r="E770" s="4"/>
+      <c r="E770" s="10"/>
+      <c r="J770" s="11"/>
+      <c r="L770" s="11"/>
     </row>
     <row r="771">
-      <c r="E771" s="4"/>
+      <c r="E771" s="10"/>
+      <c r="J771" s="11"/>
+      <c r="L771" s="11"/>
     </row>
     <row r="772">
-      <c r="E772" s="4"/>
+      <c r="E772" s="10"/>
+      <c r="J772" s="11"/>
+      <c r="L772" s="11"/>
     </row>
     <row r="773">
-      <c r="E773" s="4"/>
+      <c r="E773" s="10"/>
+      <c r="J773" s="11"/>
+      <c r="L773" s="11"/>
     </row>
     <row r="774">
-      <c r="E774" s="4"/>
+      <c r="E774" s="10"/>
+      <c r="J774" s="11"/>
+      <c r="L774" s="11"/>
     </row>
     <row r="775">
-      <c r="E775" s="4"/>
+      <c r="E775" s="10"/>
+      <c r="J775" s="11"/>
+      <c r="L775" s="11"/>
     </row>
     <row r="776">
-      <c r="E776" s="4"/>
+      <c r="E776" s="10"/>
+      <c r="J776" s="11"/>
+      <c r="L776" s="11"/>
     </row>
     <row r="777">
-      <c r="E777" s="4"/>
+      <c r="E777" s="10"/>
+      <c r="J777" s="11"/>
+      <c r="L777" s="11"/>
     </row>
     <row r="778">
-      <c r="E778" s="4"/>
+      <c r="E778" s="10"/>
+      <c r="J778" s="11"/>
+      <c r="L778" s="11"/>
     </row>
     <row r="779">
-      <c r="E779" s="4"/>
+      <c r="E779" s="10"/>
+      <c r="J779" s="11"/>
+      <c r="L779" s="11"/>
     </row>
     <row r="780">
-      <c r="E780" s="4"/>
+      <c r="E780" s="10"/>
+      <c r="J780" s="11"/>
+      <c r="L780" s="11"/>
     </row>
     <row r="781">
-      <c r="E781" s="4"/>
+      <c r="E781" s="10"/>
+      <c r="J781" s="11"/>
+      <c r="L781" s="11"/>
     </row>
     <row r="782">
-      <c r="E782" s="4"/>
+      <c r="E782" s="10"/>
+      <c r="J782" s="11"/>
+      <c r="L782" s="11"/>
     </row>
     <row r="783">
-      <c r="E783" s="4"/>
+      <c r="E783" s="10"/>
+      <c r="J783" s="11"/>
+      <c r="L783" s="11"/>
     </row>
     <row r="784">
-      <c r="E784" s="4"/>
+      <c r="E784" s="10"/>
+      <c r="J784" s="11"/>
+      <c r="L784" s="11"/>
     </row>
     <row r="785">
-      <c r="E785" s="4"/>
+      <c r="E785" s="10"/>
+      <c r="J785" s="11"/>
+      <c r="L785" s="11"/>
     </row>
     <row r="786">
-      <c r="E786" s="4"/>
+      <c r="E786" s="10"/>
+      <c r="J786" s="11"/>
+      <c r="L786" s="11"/>
     </row>
     <row r="787">
-      <c r="E787" s="4"/>
+      <c r="E787" s="10"/>
+      <c r="J787" s="11"/>
+      <c r="L787" s="11"/>
     </row>
     <row r="788">
-      <c r="E788" s="4"/>
+      <c r="E788" s="10"/>
+      <c r="J788" s="11"/>
+      <c r="L788" s="11"/>
     </row>
     <row r="789">
-      <c r="E789" s="4"/>
+      <c r="E789" s="10"/>
+      <c r="J789" s="11"/>
+      <c r="L789" s="11"/>
     </row>
     <row r="790">
-      <c r="E790" s="4"/>
+      <c r="E790" s="10"/>
+      <c r="J790" s="11"/>
+      <c r="L790" s="11"/>
     </row>
     <row r="791">
-      <c r="E791" s="4"/>
+      <c r="E791" s="10"/>
+      <c r="J791" s="11"/>
+      <c r="L791" s="11"/>
     </row>
     <row r="792">
-      <c r="E792" s="4"/>
+      <c r="E792" s="10"/>
+      <c r="J792" s="11"/>
+      <c r="L792" s="11"/>
     </row>
     <row r="793">
-      <c r="E793" s="4"/>
+      <c r="E793" s="10"/>
+      <c r="J793" s="11"/>
+      <c r="L793" s="11"/>
     </row>
     <row r="794">
-      <c r="E794" s="4"/>
+      <c r="E794" s="10"/>
+      <c r="J794" s="11"/>
+      <c r="L794" s="11"/>
     </row>
     <row r="795">
-      <c r="E795" s="4"/>
+      <c r="E795" s="10"/>
+      <c r="J795" s="11"/>
+      <c r="L795" s="11"/>
     </row>
     <row r="796">
-      <c r="E796" s="4"/>
+      <c r="E796" s="10"/>
+      <c r="J796" s="11"/>
+      <c r="L796" s="11"/>
     </row>
     <row r="797">
-      <c r="E797" s="4"/>
+      <c r="E797" s="10"/>
+      <c r="J797" s="11"/>
+      <c r="L797" s="11"/>
     </row>
     <row r="798">
-      <c r="E798" s="4"/>
+      <c r="E798" s="10"/>
+      <c r="J798" s="11"/>
+      <c r="L798" s="11"/>
     </row>
     <row r="799">
-      <c r="E799" s="4"/>
+      <c r="E799" s="10"/>
+      <c r="J799" s="11"/>
+      <c r="L799" s="11"/>
     </row>
     <row r="800">
-      <c r="E800" s="4"/>
+      <c r="E800" s="10"/>
+      <c r="J800" s="11"/>
+      <c r="L800" s="11"/>
     </row>
     <row r="801">
-      <c r="E801" s="4"/>
+      <c r="E801" s="10"/>
+      <c r="J801" s="11"/>
+      <c r="L801" s="11"/>
     </row>
     <row r="802">
-      <c r="E802" s="4"/>
+      <c r="E802" s="10"/>
+      <c r="J802" s="11"/>
+      <c r="L802" s="11"/>
     </row>
     <row r="803">
-      <c r="E803" s="4"/>
+      <c r="E803" s="10"/>
+      <c r="J803" s="11"/>
+      <c r="L803" s="11"/>
     </row>
     <row r="804">
-      <c r="E804" s="4"/>
+      <c r="E804" s="10"/>
+      <c r="J804" s="11"/>
+      <c r="L804" s="11"/>
     </row>
     <row r="805">
-      <c r="E805" s="4"/>
+      <c r="E805" s="10"/>
+      <c r="J805" s="11"/>
+      <c r="L805" s="11"/>
     </row>
     <row r="806">
-      <c r="E806" s="4"/>
+      <c r="E806" s="10"/>
+      <c r="J806" s="11"/>
+      <c r="L806" s="11"/>
     </row>
     <row r="807">
-      <c r="E807" s="4"/>
+      <c r="E807" s="10"/>
+      <c r="J807" s="11"/>
+      <c r="L807" s="11"/>
     </row>
     <row r="808">
-      <c r="E808" s="4"/>
+      <c r="E808" s="10"/>
+      <c r="J808" s="11"/>
+      <c r="L808" s="11"/>
     </row>
     <row r="809">
-      <c r="E809" s="4"/>
+      <c r="E809" s="10"/>
+      <c r="J809" s="11"/>
+      <c r="L809" s="11"/>
     </row>
     <row r="810">
-      <c r="E810" s="4"/>
+      <c r="E810" s="10"/>
+      <c r="J810" s="11"/>
+      <c r="L810" s="11"/>
     </row>
     <row r="811">
-      <c r="E811" s="4"/>
+      <c r="E811" s="10"/>
+      <c r="J811" s="11"/>
+      <c r="L811" s="11"/>
     </row>
     <row r="812">
-      <c r="E812" s="4"/>
+      <c r="E812" s="10"/>
+      <c r="J812" s="11"/>
+      <c r="L812" s="11"/>
     </row>
     <row r="813">
-      <c r="E813" s="4"/>
+      <c r="E813" s="10"/>
+      <c r="J813" s="11"/>
+      <c r="L813" s="11"/>
     </row>
     <row r="814">
-      <c r="E814" s="4"/>
+      <c r="E814" s="10"/>
+      <c r="J814" s="11"/>
+      <c r="L814" s="11"/>
     </row>
     <row r="815">
-      <c r="E815" s="4"/>
+      <c r="E815" s="10"/>
+      <c r="J815" s="11"/>
+      <c r="L815" s="11"/>
     </row>
     <row r="816">
-      <c r="E816" s="4"/>
+      <c r="E816" s="10"/>
+      <c r="J816" s="11"/>
+      <c r="L816" s="11"/>
     </row>
     <row r="817">
-      <c r="E817" s="4"/>
+      <c r="E817" s="10"/>
+      <c r="J817" s="11"/>
+      <c r="L817" s="11"/>
     </row>
     <row r="818">
-      <c r="E818" s="4"/>
+      <c r="E818" s="10"/>
+      <c r="J818" s="11"/>
+      <c r="L818" s="11"/>
     </row>
     <row r="819">
-      <c r="E819" s="4"/>
+      <c r="E819" s="10"/>
+      <c r="J819" s="11"/>
+      <c r="L819" s="11"/>
     </row>
     <row r="820">
-      <c r="E820" s="4"/>
+      <c r="E820" s="10"/>
+      <c r="J820" s="11"/>
+      <c r="L820" s="11"/>
     </row>
     <row r="821">
-      <c r="E821" s="4"/>
+      <c r="E821" s="10"/>
+      <c r="J821" s="11"/>
+      <c r="L821" s="11"/>
     </row>
     <row r="822">
-      <c r="E822" s="4"/>
+      <c r="E822" s="10"/>
+      <c r="J822" s="11"/>
+      <c r="L822" s="11"/>
     </row>
     <row r="823">
-      <c r="E823" s="4"/>
+      <c r="E823" s="10"/>
+      <c r="J823" s="11"/>
+      <c r="L823" s="11"/>
     </row>
     <row r="824">
-      <c r="E824" s="4"/>
+      <c r="E824" s="10"/>
+      <c r="J824" s="11"/>
+      <c r="L824" s="11"/>
     </row>
     <row r="825">
-      <c r="E825" s="4"/>
+      <c r="E825" s="10"/>
+      <c r="J825" s="11"/>
+      <c r="L825" s="11"/>
     </row>
     <row r="826">
-      <c r="E826" s="4"/>
+      <c r="E826" s="10"/>
+      <c r="J826" s="11"/>
+      <c r="L826" s="11"/>
     </row>
     <row r="827">
-      <c r="E827" s="4"/>
+      <c r="E827" s="10"/>
+      <c r="J827" s="11"/>
+      <c r="L827" s="11"/>
     </row>
     <row r="828">
-      <c r="E828" s="4"/>
+      <c r="E828" s="10"/>
+      <c r="J828" s="11"/>
+      <c r="L828" s="11"/>
     </row>
     <row r="829">
-      <c r="E829" s="4"/>
+      <c r="E829" s="10"/>
+      <c r="J829" s="11"/>
+      <c r="L829" s="11"/>
     </row>
     <row r="830">
-      <c r="E830" s="4"/>
+      <c r="E830" s="10"/>
+      <c r="J830" s="11"/>
+      <c r="L830" s="11"/>
     </row>
     <row r="831">
-      <c r="E831" s="4"/>
+      <c r="E831" s="10"/>
+      <c r="J831" s="11"/>
+      <c r="L831" s="11"/>
     </row>
     <row r="832">
-      <c r="E832" s="4"/>
+      <c r="E832" s="10"/>
+      <c r="J832" s="11"/>
+      <c r="L832" s="11"/>
     </row>
     <row r="833">
-      <c r="E833" s="4"/>
+      <c r="E833" s="10"/>
+      <c r="J833" s="11"/>
+      <c r="L833" s="11"/>
     </row>
     <row r="834">
-      <c r="E834" s="4"/>
+      <c r="E834" s="10"/>
+      <c r="J834" s="11"/>
+      <c r="L834" s="11"/>
     </row>
     <row r="835">
-      <c r="E835" s="4"/>
+      <c r="E835" s="10"/>
+      <c r="J835" s="11"/>
+      <c r="L835" s="11"/>
     </row>
     <row r="836">
-      <c r="E836" s="4"/>
+      <c r="E836" s="10"/>
+      <c r="J836" s="11"/>
+      <c r="L836" s="11"/>
     </row>
     <row r="837">
-      <c r="E837" s="4"/>
+      <c r="E837" s="10"/>
+      <c r="J837" s="11"/>
+      <c r="L837" s="11"/>
     </row>
     <row r="838">
-      <c r="E838" s="4"/>
+      <c r="E838" s="10"/>
+      <c r="J838" s="11"/>
+      <c r="L838" s="11"/>
     </row>
     <row r="839">
-      <c r="E839" s="4"/>
+      <c r="E839" s="10"/>
+      <c r="J839" s="11"/>
+      <c r="L839" s="11"/>
     </row>
     <row r="840">
-      <c r="E840" s="4"/>
+      <c r="E840" s="10"/>
+      <c r="J840" s="11"/>
+      <c r="L840" s="11"/>
     </row>
     <row r="841">
-      <c r="E841" s="4"/>
+      <c r="E841" s="10"/>
+      <c r="J841" s="11"/>
+      <c r="L841" s="11"/>
     </row>
     <row r="842">
-      <c r="E842" s="4"/>
+      <c r="E842" s="10"/>
+      <c r="J842" s="11"/>
+      <c r="L842" s="11"/>
     </row>
     <row r="843">
-      <c r="E843" s="4"/>
+      <c r="E843" s="10"/>
+      <c r="J843" s="11"/>
+      <c r="L843" s="11"/>
     </row>
     <row r="844">
-      <c r="E844" s="4"/>
+      <c r="E844" s="10"/>
+      <c r="J844" s="11"/>
+      <c r="L844" s="11"/>
     </row>
     <row r="845">
-      <c r="E845" s="4"/>
+      <c r="E845" s="10"/>
+      <c r="J845" s="11"/>
+      <c r="L845" s="11"/>
     </row>
     <row r="846">
-      <c r="E846" s="4"/>
+      <c r="E846" s="10"/>
+      <c r="J846" s="11"/>
+      <c r="L846" s="11"/>
     </row>
     <row r="847">
-      <c r="E847" s="4"/>
+      <c r="E847" s="10"/>
+      <c r="J847" s="11"/>
+      <c r="L847" s="11"/>
     </row>
     <row r="848">
-      <c r="E848" s="4"/>
+      <c r="E848" s="10"/>
+      <c r="J848" s="11"/>
+      <c r="L848" s="11"/>
     </row>
     <row r="849">
-      <c r="E849" s="4"/>
+      <c r="E849" s="10"/>
+      <c r="J849" s="11"/>
+      <c r="L849" s="11"/>
     </row>
     <row r="850">
-      <c r="E850" s="4"/>
+      <c r="E850" s="10"/>
+      <c r="J850" s="11"/>
+      <c r="L850" s="11"/>
     </row>
     <row r="851">
-      <c r="E851" s="4"/>
+      <c r="E851" s="10"/>
+      <c r="J851" s="11"/>
+      <c r="L851" s="11"/>
     </row>
     <row r="852">
-      <c r="E852" s="4"/>
+      <c r="E852" s="10"/>
+      <c r="J852" s="11"/>
+      <c r="L852" s="11"/>
     </row>
     <row r="853">
-      <c r="E853" s="4"/>
+      <c r="E853" s="10"/>
+      <c r="J853" s="11"/>
+      <c r="L853" s="11"/>
     </row>
     <row r="854">
-      <c r="E854" s="4"/>
+      <c r="E854" s="10"/>
+      <c r="J854" s="11"/>
+      <c r="L854" s="11"/>
     </row>
     <row r="855">
-      <c r="E855" s="4"/>
+      <c r="E855" s="10"/>
+      <c r="J855" s="11"/>
+      <c r="L855" s="11"/>
     </row>
     <row r="856">
-      <c r="E856" s="4"/>
+      <c r="E856" s="10"/>
+      <c r="J856" s="11"/>
+      <c r="L856" s="11"/>
     </row>
     <row r="857">
-      <c r="E857" s="4"/>
+      <c r="E857" s="10"/>
+      <c r="J857" s="11"/>
+      <c r="L857" s="11"/>
     </row>
     <row r="858">
-      <c r="E858" s="4"/>
+      <c r="E858" s="10"/>
+      <c r="J858" s="11"/>
+      <c r="L858" s="11"/>
     </row>
     <row r="859">
-      <c r="E859" s="4"/>
+      <c r="E859" s="10"/>
+      <c r="J859" s="11"/>
+      <c r="L859" s="11"/>
     </row>
     <row r="860">
-      <c r="E860" s="4"/>
+      <c r="E860" s="10"/>
+      <c r="J860" s="11"/>
+      <c r="L860" s="11"/>
     </row>
     <row r="861">
-      <c r="E861" s="4"/>
+      <c r="E861" s="10"/>
+      <c r="J861" s="11"/>
+      <c r="L861" s="11"/>
     </row>
     <row r="862">
-      <c r="E862" s="4"/>
+      <c r="E862" s="10"/>
+      <c r="J862" s="11"/>
+      <c r="L862" s="11"/>
     </row>
     <row r="863">
-      <c r="E863" s="4"/>
+      <c r="E863" s="10"/>
+      <c r="J863" s="11"/>
+      <c r="L863" s="11"/>
     </row>
     <row r="864">
-      <c r="E864" s="4"/>
+      <c r="E864" s="10"/>
+      <c r="J864" s="11"/>
+      <c r="L864" s="11"/>
     </row>
     <row r="865">
-      <c r="E865" s="4"/>
+      <c r="E865" s="10"/>
+      <c r="J865" s="11"/>
+      <c r="L865" s="11"/>
     </row>
     <row r="866">
-      <c r="E866" s="4"/>
+      <c r="E866" s="10"/>
+      <c r="J866" s="11"/>
+      <c r="L866" s="11"/>
     </row>
     <row r="867">
-      <c r="E867" s="4"/>
+      <c r="E867" s="10"/>
+      <c r="J867" s="11"/>
+      <c r="L867" s="11"/>
     </row>
     <row r="868">
-      <c r="E868" s="4"/>
+      <c r="E868" s="10"/>
+      <c r="J868" s="11"/>
+      <c r="L868" s="11"/>
     </row>
     <row r="869">
-      <c r="E869" s="4"/>
+      <c r="E869" s="10"/>
+      <c r="J869" s="11"/>
+      <c r="L869" s="11"/>
     </row>
     <row r="870">
-      <c r="E870" s="4"/>
+      <c r="E870" s="10"/>
+      <c r="J870" s="11"/>
+      <c r="L870" s="11"/>
     </row>
     <row r="871">
-      <c r="E871" s="4"/>
+      <c r="E871" s="10"/>
+      <c r="J871" s="11"/>
+      <c r="L871" s="11"/>
     </row>
     <row r="872">
-      <c r="E872" s="4"/>
+      <c r="E872" s="10"/>
+      <c r="J872" s="11"/>
+      <c r="L872" s="11"/>
     </row>
     <row r="873">
-      <c r="E873" s="4"/>
+      <c r="E873" s="10"/>
+      <c r="J873" s="11"/>
+      <c r="L873" s="11"/>
     </row>
     <row r="874">
-      <c r="E874" s="4"/>
+      <c r="E874" s="10"/>
+      <c r="J874" s="11"/>
+      <c r="L874" s="11"/>
     </row>
     <row r="875">
-      <c r="E875" s="4"/>
+      <c r="E875" s="10"/>
+      <c r="J875" s="11"/>
+      <c r="L875" s="11"/>
     </row>
     <row r="876">
-      <c r="E876" s="4"/>
+      <c r="E876" s="10"/>
+      <c r="J876" s="11"/>
+      <c r="L876" s="11"/>
     </row>
     <row r="877">
-      <c r="E877" s="4"/>
+      <c r="E877" s="10"/>
+      <c r="J877" s="11"/>
+      <c r="L877" s="11"/>
     </row>
     <row r="878">
-      <c r="E878" s="4"/>
+      <c r="E878" s="10"/>
+      <c r="J878" s="11"/>
+      <c r="L878" s="11"/>
     </row>
     <row r="879">
-      <c r="E879" s="4"/>
+      <c r="E879" s="10"/>
+      <c r="J879" s="11"/>
+      <c r="L879" s="11"/>
     </row>
     <row r="880">
-      <c r="E880" s="4"/>
+      <c r="E880" s="10"/>
+      <c r="J880" s="11"/>
+      <c r="L880" s="11"/>
     </row>
     <row r="881">
-      <c r="E881" s="4"/>
+      <c r="E881" s="10"/>
+      <c r="J881" s="11"/>
+      <c r="L881" s="11"/>
     </row>
     <row r="882">
-      <c r="E882" s="4"/>
+      <c r="E882" s="10"/>
+      <c r="J882" s="11"/>
+      <c r="L882" s="11"/>
     </row>
     <row r="883">
-      <c r="E883" s="4"/>
+      <c r="E883" s="10"/>
+      <c r="J883" s="11"/>
+      <c r="L883" s="11"/>
     </row>
     <row r="884">
-      <c r="E884" s="4"/>
+      <c r="E884" s="10"/>
+      <c r="J884" s="11"/>
+      <c r="L884" s="11"/>
     </row>
     <row r="885">
-      <c r="E885" s="4"/>
+      <c r="E885" s="10"/>
+      <c r="J885" s="11"/>
+      <c r="L885" s="11"/>
     </row>
     <row r="886">
-      <c r="E886" s="4"/>
+      <c r="E886" s="10"/>
+      <c r="J886" s="11"/>
+      <c r="L886" s="11"/>
     </row>
     <row r="887">
-      <c r="E887" s="4"/>
+      <c r="E887" s="10"/>
+      <c r="J887" s="11"/>
+      <c r="L887" s="11"/>
     </row>
     <row r="888">
-      <c r="E888" s="4"/>
+      <c r="E888" s="10"/>
+      <c r="J888" s="11"/>
+      <c r="L888" s="11"/>
     </row>
     <row r="889">
-      <c r="E889" s="4"/>
+      <c r="E889" s="10"/>
+      <c r="J889" s="11"/>
+      <c r="L889" s="11"/>
     </row>
     <row r="890">
-      <c r="E890" s="4"/>
+      <c r="E890" s="10"/>
+      <c r="J890" s="11"/>
+      <c r="L890" s="11"/>
     </row>
     <row r="891">
-      <c r="E891" s="4"/>
+      <c r="E891" s="10"/>
+      <c r="J891" s="11"/>
+      <c r="L891" s="11"/>
     </row>
     <row r="892">
-      <c r="E892" s="4"/>
+      <c r="E892" s="10"/>
+      <c r="J892" s="11"/>
+      <c r="L892" s="11"/>
     </row>
     <row r="893">
-      <c r="E893" s="4"/>
+      <c r="E893" s="10"/>
+      <c r="J893" s="11"/>
+      <c r="L893" s="11"/>
     </row>
     <row r="894">
-      <c r="E894" s="4"/>
+      <c r="E894" s="10"/>
+      <c r="J894" s="11"/>
+      <c r="L894" s="11"/>
     </row>
     <row r="895">
-      <c r="E895" s="4"/>
+      <c r="E895" s="10"/>
+      <c r="J895" s="11"/>
+      <c r="L895" s="11"/>
     </row>
     <row r="896">
-      <c r="E896" s="4"/>
+      <c r="E896" s="10"/>
+      <c r="J896" s="11"/>
+      <c r="L896" s="11"/>
     </row>
     <row r="897">
-      <c r="E897" s="4"/>
+      <c r="E897" s="10"/>
+      <c r="J897" s="11"/>
+      <c r="L897" s="11"/>
     </row>
     <row r="898">
-      <c r="E898" s="4"/>
+      <c r="E898" s="10"/>
+      <c r="J898" s="11"/>
+      <c r="L898" s="11"/>
     </row>
     <row r="899">
-      <c r="E899" s="4"/>
+      <c r="E899" s="10"/>
+      <c r="J899" s="11"/>
+      <c r="L899" s="11"/>
     </row>
     <row r="900">
-      <c r="E900" s="4"/>
+      <c r="E900" s="10"/>
+      <c r="J900" s="11"/>
+      <c r="L900" s="11"/>
     </row>
     <row r="901">
-      <c r="E901" s="4"/>
+      <c r="E901" s="10"/>
+      <c r="J901" s="11"/>
+      <c r="L901" s="11"/>
     </row>
     <row r="902">
-      <c r="E902" s="4"/>
+      <c r="E902" s="10"/>
+      <c r="J902" s="11"/>
+      <c r="L902" s="11"/>
     </row>
     <row r="903">
-      <c r="E903" s="4"/>
+      <c r="E903" s="10"/>
+      <c r="J903" s="11"/>
+      <c r="L903" s="11"/>
     </row>
     <row r="904">
-      <c r="E904" s="4"/>
+      <c r="E904" s="10"/>
+      <c r="J904" s="11"/>
+      <c r="L904" s="11"/>
     </row>
     <row r="905">
-      <c r="E905" s="4"/>
+      <c r="E905" s="10"/>
+      <c r="J905" s="11"/>
+      <c r="L905" s="11"/>
     </row>
     <row r="906">
-      <c r="E906" s="4"/>
+      <c r="E906" s="10"/>
+      <c r="J906" s="11"/>
+      <c r="L906" s="11"/>
     </row>
     <row r="907">
-      <c r="E907" s="4"/>
+      <c r="E907" s="10"/>
+      <c r="J907" s="11"/>
+      <c r="L907" s="11"/>
     </row>
     <row r="908">
-      <c r="E908" s="4"/>
+      <c r="E908" s="10"/>
+      <c r="J908" s="11"/>
+      <c r="L908" s="11"/>
     </row>
     <row r="909">
-      <c r="E909" s="4"/>
+      <c r="E909" s="10"/>
+      <c r="J909" s="11"/>
+      <c r="L909" s="11"/>
     </row>
     <row r="910">
-      <c r="E910" s="4"/>
+      <c r="E910" s="10"/>
+      <c r="J910" s="11"/>
+      <c r="L910" s="11"/>
     </row>
     <row r="911">
-      <c r="E911" s="4"/>
+      <c r="E911" s="10"/>
+      <c r="J911" s="11"/>
+      <c r="L911" s="11"/>
     </row>
     <row r="912">
-      <c r="E912" s="4"/>
+      <c r="E912" s="10"/>
+      <c r="J912" s="11"/>
+      <c r="L912" s="11"/>
     </row>
     <row r="913">
-      <c r="E913" s="4"/>
+      <c r="E913" s="10"/>
+      <c r="J913" s="11"/>
+      <c r="L913" s="11"/>
     </row>
     <row r="914">
-      <c r="E914" s="4"/>
+      <c r="E914" s="10"/>
+      <c r="J914" s="11"/>
+      <c r="L914" s="11"/>
     </row>
     <row r="915">
-      <c r="E915" s="4"/>
+      <c r="E915" s="10"/>
+      <c r="J915" s="11"/>
+      <c r="L915" s="11"/>
     </row>
     <row r="916">
-      <c r="E916" s="4"/>
+      <c r="E916" s="10"/>
+      <c r="J916" s="11"/>
+      <c r="L916" s="11"/>
     </row>
     <row r="917">
-      <c r="E917" s="4"/>
+      <c r="E917" s="10"/>
+      <c r="J917" s="11"/>
+      <c r="L917" s="11"/>
     </row>
     <row r="918">
-      <c r="E918" s="4"/>
+      <c r="E918" s="10"/>
+      <c r="J918" s="11"/>
+      <c r="L918" s="11"/>
     </row>
     <row r="919">
-      <c r="E919" s="4"/>
+      <c r="E919" s="10"/>
+      <c r="J919" s="11"/>
+      <c r="L919" s="11"/>
     </row>
     <row r="920">
-      <c r="E920" s="4"/>
+      <c r="E920" s="10"/>
+      <c r="J920" s="11"/>
+      <c r="L920" s="11"/>
     </row>
     <row r="921">
-      <c r="E921" s="4"/>
+      <c r="E921" s="10"/>
+      <c r="J921" s="11"/>
+      <c r="L921" s="11"/>
     </row>
     <row r="922">
-      <c r="E922" s="4"/>
+      <c r="E922" s="10"/>
+      <c r="J922" s="11"/>
+      <c r="L922" s="11"/>
     </row>
     <row r="923">
-      <c r="E923" s="4"/>
+      <c r="E923" s="10"/>
+      <c r="J923" s="11"/>
+      <c r="L923" s="11"/>
     </row>
     <row r="924">
-      <c r="E924" s="4"/>
+      <c r="E924" s="10"/>
+      <c r="J924" s="11"/>
+      <c r="L924" s="11"/>
     </row>
     <row r="925">
-      <c r="E925" s="4"/>
+      <c r="E925" s="10"/>
+      <c r="J925" s="11"/>
+      <c r="L925" s="11"/>
     </row>
     <row r="926">
-      <c r="E926" s="4"/>
+      <c r="E926" s="10"/>
+      <c r="J926" s="11"/>
+      <c r="L926" s="11"/>
     </row>
     <row r="927">
-      <c r="E927" s="4"/>
+      <c r="E927" s="10"/>
+      <c r="J927" s="11"/>
+      <c r="L927" s="11"/>
     </row>
     <row r="928">
-      <c r="E928" s="4"/>
+      <c r="E928" s="10"/>
+      <c r="J928" s="11"/>
+      <c r="L928" s="11"/>
     </row>
     <row r="929">
-      <c r="E929" s="4"/>
+      <c r="E929" s="10"/>
+      <c r="J929" s="11"/>
+      <c r="L929" s="11"/>
     </row>
     <row r="930">
-      <c r="E930" s="4"/>
+      <c r="E930" s="10"/>
+      <c r="J930" s="11"/>
+      <c r="L930" s="11"/>
     </row>
     <row r="931">
-      <c r="E931" s="4"/>
+      <c r="E931" s="10"/>
+      <c r="J931" s="11"/>
+      <c r="L931" s="11"/>
     </row>
     <row r="932">
-      <c r="E932" s="4"/>
+      <c r="E932" s="10"/>
+      <c r="J932" s="11"/>
+      <c r="L932" s="11"/>
     </row>
     <row r="933">
-      <c r="E933" s="4"/>
+      <c r="E933" s="10"/>
+      <c r="J933" s="11"/>
+      <c r="L933" s="11"/>
     </row>
     <row r="934">
-      <c r="E934" s="4"/>
+      <c r="E934" s="10"/>
+      <c r="J934" s="11"/>
+      <c r="L934" s="11"/>
     </row>
     <row r="935">
-      <c r="E935" s="4"/>
+      <c r="E935" s="10"/>
+      <c r="J935" s="11"/>
+      <c r="L935" s="11"/>
     </row>
     <row r="936">
-      <c r="E936" s="4"/>
+      <c r="E936" s="10"/>
+      <c r="J936" s="11"/>
+      <c r="L936" s="11"/>
     </row>
     <row r="937">
-      <c r="E937" s="4"/>
+      <c r="E937" s="10"/>
+      <c r="J937" s="11"/>
+      <c r="L937" s="11"/>
     </row>
     <row r="938">
-      <c r="E938" s="4"/>
+      <c r="E938" s="10"/>
+      <c r="J938" s="11"/>
+      <c r="L938" s="11"/>
     </row>
     <row r="939">
-      <c r="E939" s="4"/>
+      <c r="E939" s="10"/>
+      <c r="J939" s="11"/>
+      <c r="L939" s="11"/>
     </row>
     <row r="940">
-      <c r="E940" s="4"/>
+      <c r="E940" s="10"/>
+      <c r="J940" s="11"/>
+      <c r="L940" s="11"/>
     </row>
     <row r="941">
-      <c r="E941" s="4"/>
+      <c r="E941" s="10"/>
+      <c r="J941" s="11"/>
+      <c r="L941" s="11"/>
     </row>
     <row r="942">
-      <c r="E942" s="4"/>
+      <c r="E942" s="10"/>
+      <c r="J942" s="11"/>
+      <c r="L942" s="11"/>
     </row>
     <row r="943">
-      <c r="E943" s="4"/>
+      <c r="E943" s="10"/>
+      <c r="J943" s="11"/>
+      <c r="L943" s="11"/>
     </row>
     <row r="944">
-      <c r="E944" s="4"/>
+      <c r="E944" s="10"/>
+      <c r="J944" s="11"/>
+      <c r="L944" s="11"/>
     </row>
     <row r="945">
-      <c r="E945" s="4"/>
+      <c r="E945" s="10"/>
+      <c r="J945" s="11"/>
+      <c r="L945" s="11"/>
     </row>
     <row r="946">
-      <c r="E946" s="4"/>
+      <c r="E946" s="10"/>
+      <c r="J946" s="11"/>
+      <c r="L946" s="11"/>
     </row>
     <row r="947">
-      <c r="E947" s="4"/>
+      <c r="E947" s="10"/>
+      <c r="J947" s="11"/>
+      <c r="L947" s="11"/>
     </row>
     <row r="948">
-      <c r="E948" s="4"/>
+      <c r="E948" s="10"/>
+      <c r="J948" s="11"/>
+      <c r="L948" s="11"/>
     </row>
     <row r="949">
-      <c r="E949" s="4"/>
+      <c r="E949" s="10"/>
+      <c r="J949" s="11"/>
+      <c r="L949" s="11"/>
     </row>
     <row r="950">
-      <c r="E950" s="4"/>
+      <c r="E950" s="10"/>
+      <c r="J950" s="11"/>
+      <c r="L950" s="11"/>
     </row>
     <row r="951">
-      <c r="E951" s="4"/>
+      <c r="E951" s="10"/>
+      <c r="J951" s="11"/>
+      <c r="L951" s="11"/>
     </row>
     <row r="952">
-      <c r="E952" s="4"/>
+      <c r="E952" s="10"/>
+      <c r="J952" s="11"/>
+      <c r="L952" s="11"/>
     </row>
     <row r="953">
-      <c r="E953" s="4"/>
+      <c r="E953" s="10"/>
+      <c r="J953" s="11"/>
+      <c r="L953" s="11"/>
     </row>
     <row r="954">
-      <c r="E954" s="4"/>
+      <c r="E954" s="10"/>
+      <c r="J954" s="11"/>
+      <c r="L954" s="11"/>
     </row>
     <row r="955">
-      <c r="E955" s="4"/>
+      <c r="E955" s="10"/>
+      <c r="J955" s="11"/>
+      <c r="L955" s="11"/>
     </row>
     <row r="956">
-      <c r="E956" s="4"/>
+      <c r="E956" s="10"/>
+      <c r="J956" s="11"/>
+      <c r="L956" s="11"/>
     </row>
     <row r="957">
-      <c r="E957" s="4"/>
+      <c r="E957" s="10"/>
+      <c r="J957" s="11"/>
+      <c r="L957" s="11"/>
     </row>
     <row r="958">
-      <c r="E958" s="4"/>
+      <c r="E958" s="10"/>
+      <c r="J958" s="11"/>
+      <c r="L958" s="11"/>
     </row>
     <row r="959">
-      <c r="E959" s="4"/>
+      <c r="E959" s="10"/>
+      <c r="J959" s="11"/>
+      <c r="L959" s="11"/>
     </row>
     <row r="960">
-      <c r="E960" s="4"/>
+      <c r="E960" s="10"/>
+      <c r="J960" s="11"/>
+      <c r="L960" s="11"/>
     </row>
     <row r="961">
-      <c r="E961" s="4"/>
+      <c r="E961" s="10"/>
+      <c r="J961" s="11"/>
+      <c r="L961" s="11"/>
     </row>
     <row r="962">
-      <c r="E962" s="4"/>
+      <c r="E962" s="10"/>
+      <c r="J962" s="11"/>
+      <c r="L962" s="11"/>
     </row>
     <row r="963">
-      <c r="E963" s="4"/>
+      <c r="E963" s="10"/>
+      <c r="J963" s="11"/>
+      <c r="L963" s="11"/>
     </row>
     <row r="964">
-      <c r="E964" s="4"/>
+      <c r="E964" s="10"/>
+      <c r="J964" s="11"/>
+      <c r="L964" s="11"/>
     </row>
     <row r="965">
-      <c r="E965" s="4"/>
+      <c r="E965" s="10"/>
+      <c r="J965" s="11"/>
+      <c r="L965" s="11"/>
     </row>
     <row r="966">
-      <c r="E966" s="4"/>
+      <c r="E966" s="10"/>
+      <c r="J966" s="11"/>
+      <c r="L966" s="11"/>
     </row>
     <row r="967">
-      <c r="E967" s="4"/>
+      <c r="E967" s="10"/>
+      <c r="J967" s="11"/>
+      <c r="L967" s="11"/>
     </row>
     <row r="968">
-      <c r="E968" s="4"/>
+      <c r="E968" s="10"/>
+      <c r="J968" s="11"/>
+      <c r="L968" s="11"/>
     </row>
     <row r="969">
-      <c r="E969" s="4"/>
+      <c r="E969" s="10"/>
+      <c r="J969" s="11"/>
+      <c r="L969" s="11"/>
     </row>
     <row r="970">
-      <c r="E970" s="4"/>
+      <c r="E970" s="10"/>
+      <c r="J970" s="11"/>
+      <c r="L970" s="11"/>
     </row>
     <row r="971">
-      <c r="E971" s="4"/>
+      <c r="E971" s="10"/>
+      <c r="J971" s="11"/>
+      <c r="L971" s="11"/>
     </row>
     <row r="972">
-      <c r="E972" s="4"/>
+      <c r="E972" s="10"/>
+      <c r="J972" s="11"/>
+      <c r="L972" s="11"/>
     </row>
     <row r="973">
-      <c r="E973" s="4"/>
+      <c r="E973" s="10"/>
+      <c r="J973" s="11"/>
+      <c r="L973" s="11"/>
     </row>
     <row r="974">
-      <c r="E974" s="4"/>
+      <c r="E974" s="10"/>
+      <c r="J974" s="11"/>
+      <c r="L974" s="11"/>
     </row>
     <row r="975">
-      <c r="E975" s="4"/>
+      <c r="E975" s="10"/>
+      <c r="J975" s="11"/>
+      <c r="L975" s="11"/>
     </row>
     <row r="976">
-      <c r="E976" s="4"/>
+      <c r="E976" s="10"/>
+      <c r="J976" s="11"/>
+      <c r="L976" s="11"/>
     </row>
     <row r="977">
-      <c r="E977" s="4"/>
+      <c r="E977" s="10"/>
+      <c r="J977" s="11"/>
+      <c r="L977" s="11"/>
     </row>
     <row r="978">
-      <c r="E978" s="4"/>
+      <c r="E978" s="10"/>
+      <c r="J978" s="11"/>
+      <c r="L978" s="11"/>
     </row>
     <row r="979">
-      <c r="E979" s="4"/>
+      <c r="E979" s="10"/>
+      <c r="J979" s="11"/>
+      <c r="L979" s="11"/>
     </row>
     <row r="980">
-      <c r="E980" s="4"/>
+      <c r="E980" s="10"/>
+      <c r="J980" s="11"/>
+      <c r="L980" s="11"/>
     </row>
     <row r="981">
-      <c r="E981" s="4"/>
+      <c r="E981" s="10"/>
+      <c r="J981" s="11"/>
+      <c r="L981" s="11"/>
     </row>
     <row r="982">
-      <c r="E982" s="4"/>
+      <c r="E982" s="10"/>
+      <c r="J982" s="11"/>
+      <c r="L982" s="11"/>
     </row>
     <row r="983">
-      <c r="E983" s="4"/>
+      <c r="E983" s="10"/>
+      <c r="J983" s="11"/>
+      <c r="L983" s="11"/>
     </row>
     <row r="984">
-      <c r="E984" s="4"/>
+      <c r="E984" s="10"/>
+      <c r="J984" s="11"/>
+      <c r="L984" s="11"/>
     </row>
     <row r="985">
-      <c r="E985" s="4"/>
+      <c r="E985" s="10"/>
+      <c r="J985" s="11"/>
+      <c r="L985" s="11"/>
     </row>
     <row r="986">
-      <c r="E986" s="4"/>
+      <c r="E986" s="10"/>
+      <c r="J986" s="11"/>
+      <c r="L986" s="11"/>
     </row>
     <row r="987">
-      <c r="E987" s="4"/>
+      <c r="E987" s="10"/>
+      <c r="J987" s="11"/>
+      <c r="L987" s="11"/>
     </row>
     <row r="988">
-      <c r="E988" s="4"/>
+      <c r="E988" s="10"/>
+      <c r="J988" s="11"/>
+      <c r="L988" s="11"/>
     </row>
     <row r="989">
-      <c r="E989" s="4"/>
+      <c r="E989" s="10"/>
+      <c r="J989" s="11"/>
+      <c r="L989" s="11"/>
     </row>
     <row r="990">
-      <c r="E990" s="4"/>
+      <c r="E990" s="10"/>
+      <c r="J990" s="11"/>
+      <c r="L990" s="11"/>
     </row>
     <row r="991">
-      <c r="E991" s="4"/>
+      <c r="E991" s="10"/>
+      <c r="J991" s="11"/>
+      <c r="L991" s="11"/>
     </row>
     <row r="992">
-      <c r="E992" s="4"/>
+      <c r="E992" s="10"/>
+      <c r="J992" s="11"/>
+      <c r="L992" s="11"/>
     </row>
     <row r="993">
-      <c r="E993" s="4"/>
+      <c r="E993" s="10"/>
+      <c r="J993" s="11"/>
+      <c r="L993" s="11"/>
     </row>
     <row r="994">
-      <c r="E994" s="4"/>
+      <c r="E994" s="10"/>
+      <c r="J994" s="11"/>
+      <c r="L994" s="11"/>
     </row>
     <row r="995">
-      <c r="E995" s="4"/>
+      <c r="E995" s="10"/>
+      <c r="J995" s="11"/>
+      <c r="L995" s="11"/>
     </row>
     <row r="996">
-      <c r="E996" s="4"/>
+      <c r="E996" s="10"/>
+      <c r="J996" s="11"/>
+      <c r="L996" s="11"/>
     </row>
     <row r="997">
-      <c r="E997" s="4"/>
+      <c r="E997" s="10"/>
+      <c r="J997" s="11"/>
+      <c r="L997" s="11"/>
     </row>
     <row r="998">
-      <c r="E998" s="4"/>
+      <c r="E998" s="10"/>
+      <c r="J998" s="11"/>
+      <c r="L998" s="11"/>
     </row>
     <row r="999">
-      <c r="E999" s="4"/>
-    </row>
-    <row r="1000">
-      <c r="E1000" s="4"/>
+      <c r="E999" s="10"/>
+      <c r="J999" s="11"/>
+      <c r="L999" s="11"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{249C34B5-056B-4993-B8DB-CEB1662529D1}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$L$83">
+    <customSheetView guid="{0229628C-43D2-484F-9572-906B14DA04C5}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$L$82">
         <filterColumn colId="8">
           <filters blank="1">
+            <filter val="pas nécessaire"/>
+            <filter val="Renaud Durussel"/>
+            <filter val="Letizia Lilliu"/>
+            <filter val="Lisa"/>
+            <filter val="Sibylle Baechtold"/>
+            <filter val="Morgane Fouvy"/>
+            <filter val="Thierry Briquet"/>
+            <filter val="Lea"/>
+            <filter val="Delia Rein"/>
+            <filter val="Annabelle"/>
+            <filter val="Sarah Noel-Weil"/>
+            <filter val="Eva"/>
+            <filter val="Driss Ben Mimoun"/>
+            <filter val="Ruslana"/>
+            <filter val="Naya Cazeaux"/>
             <filter val="Daniel Kostro"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{79B589E8-FBA2-4EA7-9246-9A5241EA3073}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$L$83">
+    <customSheetView guid="{9681BB68-BA09-4DE1-A914-65FB9A9BB0F2}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$L$82">
         <filterColumn colId="8">
           <filters>
-            <filter val="entrainement M23"/>
-            <filter val="Patrick Dangleterre"/>
+            <filter val="pas nécessaire"/>
+            <filter val="Renaud Durussel"/>
             <filter val="Etienne Basset"/>
-            <filter val="Sarah Cavin"/>
             <filter val="Jessica Bernarda"/>
+            <filter val="Letizia Lilliu"/>
+            <filter val="Lisa"/>
+            <filter val="Sibylle Baechtold"/>
+            <filter val="Morgane Fouvy"/>
             <filter val="Benoît Brot"/>
-            <filter val="Emeric Gay-des-Combes"/>
             <filter val="Emmeline Guyaz"/>
-            <filter val="Daniel Kostro"/>
             <filter val="Sebastiano Conforti"/>
             <filter val="Margaux Lari"/>
-            <filter val="Ania Hofer"/>
             <filter val="Alyssa Pasini"/>
             <filter val="Chouda Mputu"/>
+            <filter val="Thierry Briquet"/>
+            <filter val="Patrick Dangleterre"/>
+            <filter val="Lea"/>
+            <filter val="Delia Rein"/>
+            <filter val="Annabelle"/>
+            <filter val="Sarah Noel-Weil"/>
+            <filter val="Sarah Cavin"/>
+            <filter val="Eva"/>
+            <filter val="Driss Ben Mimoun"/>
+            <filter val="Emeric Gay-des-Combes"/>
+            <filter val="Ruslana"/>
+            <filter val="Naya Cazeaux"/>
+            <filter val="Daniel Kostro"/>
+            <filter val="Ania Hofer"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{6307935D-4530-4C72-BF3D-73DED354A67D}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$L$83">
-        <sortState ref="A1:L83">
-          <sortCondition ref="E1:E83"/>
+    <customSheetView guid="{DCE28386-E219-4037-B888-AD9076C74262}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$L$82">
+        <sortState ref="A1:L82">
+          <sortCondition ref="E1:E82"/>
         </sortState>
       </autoFilter>
     </customSheetView>
   </customSheetViews>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
